--- a/data-migration/xlsx_1900-/1919_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1919_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE6672-1206-40FE-8BD7-B7A4708961DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F403FE18-D8B8-4570-AC3E-E3F0F3AF469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="1458">
   <si>
     <t>Sommer</t>
   </si>
@@ -4228,9 +4228,6 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>pfenninger_hf</t>
   </si>
   <si>
@@ -4261,27 +4258,18 @@
     <t>bloch_b</t>
   </si>
   <si>
-    <t>brunner_g</t>
-  </si>
-  <si>
     <t>meyerrueegg_h</t>
   </si>
   <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
     <t>silberschmidt _w</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -4388,6 +4376,24 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>zuercher_e2</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>brun_h</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
   </si>
 </sst>
 </file>
@@ -4429,10 +4435,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4739,20 +4744,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M171" sqref="M171"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.453125" customWidth="1"/>
-    <col min="6" max="6" width="32.26953125" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1919</v>
       </c>
@@ -4775,10 +4780,10 @@
         <v>1277</v>
       </c>
       <c r="I1" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1919</v>
       </c>
@@ -4801,10 +4806,10 @@
         <v>1278</v>
       </c>
       <c r="I2" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1919</v>
       </c>
@@ -4827,10 +4832,10 @@
         <v>1400</v>
       </c>
       <c r="I3" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1919</v>
       </c>
@@ -4853,10 +4858,10 @@
         <v>1277</v>
       </c>
       <c r="I4" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1919</v>
       </c>
@@ -4879,10 +4884,10 @@
         <v>1400</v>
       </c>
       <c r="I5" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1919</v>
       </c>
@@ -4905,10 +4910,10 @@
         <v>1400</v>
       </c>
       <c r="I6" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1919</v>
       </c>
@@ -4931,13 +4936,13 @@
         <v>1280</v>
       </c>
       <c r="I7" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J7" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1919</v>
       </c>
@@ -4960,10 +4965,10 @@
         <v>1281</v>
       </c>
       <c r="I8" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1919</v>
       </c>
@@ -4986,13 +4991,13 @@
         <v>1280</v>
       </c>
       <c r="I9" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J9" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1919</v>
       </c>
@@ -5015,10 +5020,10 @@
         <v>1400</v>
       </c>
       <c r="I10" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1919</v>
       </c>
@@ -5041,10 +5046,10 @@
         <v>1401</v>
       </c>
       <c r="I11" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1919</v>
       </c>
@@ -5067,10 +5072,10 @@
         <v>1281</v>
       </c>
       <c r="I12" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1919</v>
       </c>
@@ -5093,10 +5098,10 @@
         <v>1279</v>
       </c>
       <c r="I13" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1919</v>
       </c>
@@ -5116,13 +5121,13 @@
         <v>952</v>
       </c>
       <c r="H14" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="I14" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1919</v>
       </c>
@@ -5145,10 +5150,10 @@
         <v>1279</v>
       </c>
       <c r="I15" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1919</v>
       </c>
@@ -5168,13 +5173,13 @@
         <v>954</v>
       </c>
       <c r="H16" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="I16" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1919</v>
       </c>
@@ -5197,10 +5202,10 @@
         <v>1278</v>
       </c>
       <c r="I17" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1919</v>
       </c>
@@ -5223,10 +5228,10 @@
         <v>1401</v>
       </c>
       <c r="I18" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1919</v>
       </c>
@@ -5249,10 +5254,10 @@
         <v>1278</v>
       </c>
       <c r="I19" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1919</v>
       </c>
@@ -5275,10 +5280,10 @@
         <v>1277</v>
       </c>
       <c r="I20" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1919</v>
       </c>
@@ -5301,13 +5306,13 @@
         <v>1280</v>
       </c>
       <c r="I21" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J21" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1919</v>
       </c>
@@ -5330,10 +5335,10 @@
         <v>1401</v>
       </c>
       <c r="I22" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1919</v>
       </c>
@@ -5356,10 +5361,10 @@
         <v>1279</v>
       </c>
       <c r="I23" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1919</v>
       </c>
@@ -5379,13 +5384,13 @@
         <v>961</v>
       </c>
       <c r="H24" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="I24" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1919</v>
       </c>
@@ -5408,10 +5413,10 @@
         <v>1401</v>
       </c>
       <c r="I25" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1919</v>
       </c>
@@ -5434,10 +5439,10 @@
         <v>1278</v>
       </c>
       <c r="I26" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1919</v>
       </c>
@@ -5460,13 +5465,13 @@
         <v>1282</v>
       </c>
       <c r="I27" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J27" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1919</v>
       </c>
@@ -5489,13 +5494,13 @@
         <v>1282</v>
       </c>
       <c r="I28" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J28" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1919</v>
       </c>
@@ -5518,10 +5523,10 @@
         <v>1283</v>
       </c>
       <c r="I29" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1919</v>
       </c>
@@ -5544,10 +5549,10 @@
         <v>1284</v>
       </c>
       <c r="I30" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1919</v>
       </c>
@@ -5567,13 +5572,13 @@
         <v>968</v>
       </c>
       <c r="H31" t="s">
-        <v>1402</v>
+        <v>1453</v>
       </c>
       <c r="I31" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1919</v>
       </c>
@@ -5596,10 +5601,10 @@
         <v>1284</v>
       </c>
       <c r="I32" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1919</v>
       </c>
@@ -5622,10 +5627,10 @@
         <v>1286</v>
       </c>
       <c r="I33" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1919</v>
       </c>
@@ -5648,10 +5653,10 @@
         <v>1287</v>
       </c>
       <c r="I34" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1919</v>
       </c>
@@ -5674,10 +5679,10 @@
         <v>1283</v>
       </c>
       <c r="I35" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1919</v>
       </c>
@@ -5700,10 +5705,10 @@
         <v>1288</v>
       </c>
       <c r="I36" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1919</v>
       </c>
@@ -5726,10 +5731,10 @@
         <v>1289</v>
       </c>
       <c r="I37" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1919</v>
       </c>
@@ -5752,10 +5757,10 @@
         <v>1286</v>
       </c>
       <c r="I38" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1919</v>
       </c>
@@ -5778,10 +5783,10 @@
         <v>1288</v>
       </c>
       <c r="I39" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1919</v>
       </c>
@@ -5801,13 +5806,13 @@
         <v>977</v>
       </c>
       <c r="H40" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I40" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1919</v>
       </c>
@@ -5830,10 +5835,10 @@
         <v>1288</v>
       </c>
       <c r="I41" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1919</v>
       </c>
@@ -5856,10 +5861,10 @@
         <v>1289</v>
       </c>
       <c r="I42" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1919</v>
       </c>
@@ -5879,13 +5884,13 @@
         <v>980</v>
       </c>
       <c r="H43" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I43" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1919</v>
       </c>
@@ -5905,13 +5910,13 @@
         <v>981</v>
       </c>
       <c r="H44" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="I44" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1919</v>
       </c>
@@ -5934,10 +5939,10 @@
         <v>1290</v>
       </c>
       <c r="I45" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1919</v>
       </c>
@@ -5960,10 +5965,10 @@
         <v>1290</v>
       </c>
       <c r="I46" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1919</v>
       </c>
@@ -5986,10 +5991,10 @@
         <v>1290</v>
       </c>
       <c r="I47" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1919</v>
       </c>
@@ -6012,10 +6017,10 @@
         <v>1291</v>
       </c>
       <c r="I48" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1919</v>
       </c>
@@ -6038,10 +6043,10 @@
         <v>1292</v>
       </c>
       <c r="I49" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1919</v>
       </c>
@@ -6064,10 +6069,10 @@
         <v>1293</v>
       </c>
       <c r="I50" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1919</v>
       </c>
@@ -6090,10 +6095,10 @@
         <v>1294</v>
       </c>
       <c r="I51" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1919</v>
       </c>
@@ -6116,10 +6121,10 @@
         <v>1294</v>
       </c>
       <c r="I52" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1919</v>
       </c>
@@ -6138,14 +6143,14 @@
       <c r="G53" t="s">
         <v>988</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>1404</v>
+      <c r="H53" t="s">
+        <v>1403</v>
       </c>
       <c r="I53" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1919</v>
       </c>
@@ -6168,10 +6173,10 @@
         <v>1295</v>
       </c>
       <c r="I54" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1919</v>
       </c>
@@ -6194,10 +6199,10 @@
         <v>1296</v>
       </c>
       <c r="I55" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1919</v>
       </c>
@@ -6216,14 +6221,14 @@
       <c r="G56" t="s">
         <v>990</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" t="s">
         <v>1297</v>
       </c>
       <c r="I56" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1919</v>
       </c>
@@ -6246,10 +6251,10 @@
         <v>1298</v>
       </c>
       <c r="I57" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1919</v>
       </c>
@@ -6272,10 +6277,10 @@
         <v>1298</v>
       </c>
       <c r="I58" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1919</v>
       </c>
@@ -6298,10 +6303,10 @@
         <v>1299</v>
       </c>
       <c r="I59" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1919</v>
       </c>
@@ -6321,13 +6326,13 @@
         <v>994</v>
       </c>
       <c r="H60" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I60" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1919</v>
       </c>
@@ -6347,13 +6352,13 @@
         <v>995</v>
       </c>
       <c r="H61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I61" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1919</v>
       </c>
@@ -6376,10 +6381,10 @@
         <v>1284</v>
       </c>
       <c r="I62" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1919</v>
       </c>
@@ -6399,13 +6404,13 @@
         <v>996</v>
       </c>
       <c r="H63" t="s">
-        <v>1402</v>
+        <v>1453</v>
       </c>
       <c r="I63" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1919</v>
       </c>
@@ -6428,10 +6433,10 @@
         <v>1288</v>
       </c>
       <c r="I64" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1919</v>
       </c>
@@ -6454,10 +6459,10 @@
         <v>1289</v>
       </c>
       <c r="I65" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1919</v>
       </c>
@@ -6477,13 +6482,13 @@
         <v>999</v>
       </c>
       <c r="H66" t="s">
-        <v>1288</v>
+        <v>1452</v>
       </c>
       <c r="I66" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1919</v>
       </c>
@@ -6506,10 +6511,10 @@
         <v>1293</v>
       </c>
       <c r="I67" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1919</v>
       </c>
@@ -6532,10 +6537,10 @@
         <v>1293</v>
       </c>
       <c r="I68" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1919</v>
       </c>
@@ -6558,10 +6563,10 @@
         <v>1292</v>
       </c>
       <c r="I69" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1919</v>
       </c>
@@ -6584,10 +6589,10 @@
         <v>1294</v>
       </c>
       <c r="I70" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1919</v>
       </c>
@@ -6610,10 +6615,10 @@
         <v>1295</v>
       </c>
       <c r="I71" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1919</v>
       </c>
@@ -6632,20 +6637,20 @@
       <c r="G72" t="s">
         <v>1003</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" t="s">
         <v>1297</v>
       </c>
       <c r="I72" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="K72" t="s">
         <v>1386</v>
       </c>
       <c r="L72" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1919</v>
       </c>
@@ -6662,13 +6667,13 @@
         <v>548</v>
       </c>
       <c r="G73" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="H73" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1919</v>
       </c>
@@ -6691,10 +6696,10 @@
         <v>1298</v>
       </c>
       <c r="I74" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1919</v>
       </c>
@@ -6717,10 +6722,10 @@
         <v>1298</v>
       </c>
       <c r="I75" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1919</v>
       </c>
@@ -6743,10 +6748,10 @@
         <v>1298</v>
       </c>
       <c r="I76" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1919</v>
       </c>
@@ -6772,7 +6777,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1919</v>
       </c>
@@ -6795,19 +6800,19 @@
         <v>1301</v>
       </c>
       <c r="I78" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="K78" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="L78" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="M78" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1919</v>
       </c>
@@ -6833,10 +6838,10 @@
         <v>1301</v>
       </c>
       <c r="I79" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1919</v>
       </c>
@@ -6859,10 +6864,10 @@
         <v>1301</v>
       </c>
       <c r="I80" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1919</v>
       </c>
@@ -6888,10 +6893,10 @@
         <v>1301</v>
       </c>
       <c r="I81" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1919</v>
       </c>
@@ -6914,16 +6919,16 @@
         <v>1301</v>
       </c>
       <c r="I82" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="K82" t="s">
         <v>1302</v>
       </c>
       <c r="L82" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1919</v>
       </c>
@@ -6943,13 +6948,13 @@
         <v>1012</v>
       </c>
       <c r="H83" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I83" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1919</v>
       </c>
@@ -6969,13 +6974,13 @@
         <v>1013</v>
       </c>
       <c r="H84" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I84" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1919</v>
       </c>
@@ -6995,13 +7000,13 @@
         <v>1014</v>
       </c>
       <c r="H85" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I85" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1919</v>
       </c>
@@ -7021,13 +7026,13 @@
         <v>1015</v>
       </c>
       <c r="H86" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I86" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1919</v>
       </c>
@@ -7047,13 +7052,13 @@
         <v>1016</v>
       </c>
       <c r="H87" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I87" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1919</v>
       </c>
@@ -7073,13 +7078,13 @@
         <v>1017</v>
       </c>
       <c r="H88" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I88" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1919</v>
       </c>
@@ -7099,13 +7104,13 @@
         <v>1018</v>
       </c>
       <c r="H89" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I89" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1919</v>
       </c>
@@ -7125,13 +7130,13 @@
         <v>1019</v>
       </c>
       <c r="H90" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I90" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1919</v>
       </c>
@@ -7151,13 +7156,13 @@
         <v>1020</v>
       </c>
       <c r="H91" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I91" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1919</v>
       </c>
@@ -7180,10 +7185,10 @@
         <v>1304</v>
       </c>
       <c r="I92" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1919</v>
       </c>
@@ -7206,10 +7211,10 @@
         <v>1305</v>
       </c>
       <c r="I93" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1919</v>
       </c>
@@ -7232,10 +7237,10 @@
         <v>1305</v>
       </c>
       <c r="I94" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1919</v>
       </c>
@@ -7258,10 +7263,10 @@
         <v>1305</v>
       </c>
       <c r="I95" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1919</v>
       </c>
@@ -7284,10 +7289,10 @@
         <v>1305</v>
       </c>
       <c r="I96" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1919</v>
       </c>
@@ -7310,10 +7315,10 @@
         <v>1305</v>
       </c>
       <c r="I97" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1919</v>
       </c>
@@ -7333,13 +7338,13 @@
         <v>1027</v>
       </c>
       <c r="H98" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="I98" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1919</v>
       </c>
@@ -7359,13 +7364,13 @@
         <v>1028</v>
       </c>
       <c r="H99" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="I99" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1919</v>
       </c>
@@ -7385,13 +7390,13 @@
         <v>1029</v>
       </c>
       <c r="H100" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I100" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1919</v>
       </c>
@@ -7411,13 +7416,13 @@
         <v>1030</v>
       </c>
       <c r="H101" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I101" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1919</v>
       </c>
@@ -7437,13 +7442,13 @@
         <v>1031</v>
       </c>
       <c r="H102" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I102" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1919</v>
       </c>
@@ -7466,10 +7471,10 @@
         <v>1306</v>
       </c>
       <c r="I103" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1919</v>
       </c>
@@ -7492,10 +7497,10 @@
         <v>1306</v>
       </c>
       <c r="I104" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1919</v>
       </c>
@@ -7518,10 +7523,10 @@
         <v>1306</v>
       </c>
       <c r="I105" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1919</v>
       </c>
@@ -7541,13 +7546,13 @@
         <v>1035</v>
       </c>
       <c r="H106" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I106" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1919</v>
       </c>
@@ -7567,13 +7572,13 @@
         <v>1027</v>
       </c>
       <c r="H107" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I107" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1919</v>
       </c>
@@ -7593,13 +7598,13 @@
         <v>1036</v>
       </c>
       <c r="H108" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I108" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1919</v>
       </c>
@@ -7619,13 +7624,13 @@
         <v>1037</v>
       </c>
       <c r="H109" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I109" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1919</v>
       </c>
@@ -7645,13 +7650,13 @@
         <v>1038</v>
       </c>
       <c r="H110" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I110" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1919</v>
       </c>
@@ -7671,13 +7676,13 @@
         <v>1021</v>
       </c>
       <c r="H111" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I111" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1919</v>
       </c>
@@ -7697,13 +7702,13 @@
         <v>1039</v>
       </c>
       <c r="H112" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I112" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1919</v>
       </c>
@@ -7723,13 +7728,13 @@
         <v>1040</v>
       </c>
       <c r="H113" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I113" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1919</v>
       </c>
@@ -7749,13 +7754,13 @@
         <v>1041</v>
       </c>
       <c r="H114" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="I114" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1919</v>
       </c>
@@ -7778,10 +7783,10 @@
         <v>1307</v>
       </c>
       <c r="I115" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1919</v>
       </c>
@@ -7804,10 +7809,10 @@
         <v>1307</v>
       </c>
       <c r="I116" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1919</v>
       </c>
@@ -7830,10 +7835,10 @@
         <v>1308</v>
       </c>
       <c r="I117" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1919</v>
       </c>
@@ -7856,10 +7861,10 @@
         <v>1308</v>
       </c>
       <c r="I118" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1919</v>
       </c>
@@ -7882,10 +7887,10 @@
         <v>1308</v>
       </c>
       <c r="I119" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1919</v>
       </c>
@@ -7908,10 +7913,10 @@
         <v>1309</v>
       </c>
       <c r="I120" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1919</v>
       </c>
@@ -7934,10 +7939,10 @@
         <v>1309</v>
       </c>
       <c r="I121" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1919</v>
       </c>
@@ -7960,10 +7965,10 @@
         <v>1309</v>
       </c>
       <c r="I122" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1919</v>
       </c>
@@ -7986,10 +7991,10 @@
         <v>1310</v>
       </c>
       <c r="I123" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1919</v>
       </c>
@@ -8012,10 +8017,10 @@
         <v>1310</v>
       </c>
       <c r="I124" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1919</v>
       </c>
@@ -8038,10 +8043,10 @@
         <v>1302</v>
       </c>
       <c r="I125" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1919</v>
       </c>
@@ -8064,16 +8069,16 @@
         <v>1302</v>
       </c>
       <c r="I126" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="K126" t="s">
         <v>1315</v>
       </c>
       <c r="L126" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1919</v>
       </c>
@@ -8096,16 +8101,16 @@
         <v>1301</v>
       </c>
       <c r="I127" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="K127" t="s">
         <v>1302</v>
       </c>
       <c r="L127" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1919</v>
       </c>
@@ -8128,10 +8133,10 @@
         <v>1302</v>
       </c>
       <c r="I128" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1919</v>
       </c>
@@ -8154,10 +8159,10 @@
         <v>1311</v>
       </c>
       <c r="I129" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1919</v>
       </c>
@@ -8180,10 +8185,10 @@
         <v>1311</v>
       </c>
       <c r="I130" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1919</v>
       </c>
@@ -8206,10 +8211,10 @@
         <v>1311</v>
       </c>
       <c r="I131" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1919</v>
       </c>
@@ -8232,10 +8237,10 @@
         <v>1312</v>
       </c>
       <c r="I132" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1919</v>
       </c>
@@ -8255,13 +8260,13 @@
         <v>1055</v>
       </c>
       <c r="H133" t="s">
-        <v>1413</v>
+        <v>1454</v>
       </c>
       <c r="I133" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1919</v>
       </c>
@@ -8284,10 +8289,10 @@
         <v>1314</v>
       </c>
       <c r="I134" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1919</v>
       </c>
@@ -8310,10 +8315,10 @@
         <v>1315</v>
       </c>
       <c r="I135" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1919</v>
       </c>
@@ -8336,10 +8341,10 @@
         <v>1315</v>
       </c>
       <c r="I136" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1919</v>
       </c>
@@ -8362,10 +8367,10 @@
         <v>1315</v>
       </c>
       <c r="I137" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1919</v>
       </c>
@@ -8388,10 +8393,10 @@
         <v>1316</v>
       </c>
       <c r="I138" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1919</v>
       </c>
@@ -8414,10 +8419,10 @@
         <v>1316</v>
       </c>
       <c r="I139" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1919</v>
       </c>
@@ -8440,10 +8445,10 @@
         <v>1317</v>
       </c>
       <c r="I140" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1919</v>
       </c>
@@ -8466,10 +8471,10 @@
         <v>1318</v>
       </c>
       <c r="I141" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1919</v>
       </c>
@@ -8492,10 +8497,10 @@
         <v>1318</v>
       </c>
       <c r="I142" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1919</v>
       </c>
@@ -8515,13 +8520,13 @@
         <v>1062</v>
       </c>
       <c r="H143" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I143" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1919</v>
       </c>
@@ -8541,13 +8546,13 @@
         <v>1063</v>
       </c>
       <c r="H144" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I144" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1919</v>
       </c>
@@ -8567,13 +8572,13 @@
         <v>1064</v>
       </c>
       <c r="H145" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I145" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1919</v>
       </c>
@@ -8593,13 +8598,13 @@
         <v>1065</v>
       </c>
       <c r="H146" t="s">
-        <v>1416</v>
+        <v>1457</v>
       </c>
       <c r="I146" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1919</v>
       </c>
@@ -8619,13 +8624,13 @@
         <v>1065</v>
       </c>
       <c r="H147" t="s">
-        <v>1416</v>
+        <v>1457</v>
       </c>
       <c r="I147" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1919</v>
       </c>
@@ -8648,10 +8653,10 @@
         <v>1319</v>
       </c>
       <c r="I148" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1919</v>
       </c>
@@ -8674,10 +8679,10 @@
         <v>1319</v>
       </c>
       <c r="I149" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1919</v>
       </c>
@@ -8696,14 +8701,14 @@
       <c r="G150" t="s">
         <v>1068</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H150" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1919</v>
       </c>
@@ -8722,14 +8727,14 @@
       <c r="G151" t="s">
         <v>1069</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H151" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1919</v>
       </c>
@@ -8752,10 +8757,10 @@
         <v>1320</v>
       </c>
       <c r="I152" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1919</v>
       </c>
@@ -8778,10 +8783,10 @@
         <v>1320</v>
       </c>
       <c r="I153" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1919</v>
       </c>
@@ -8804,10 +8809,10 @@
         <v>1321</v>
       </c>
       <c r="I154" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1919</v>
       </c>
@@ -8830,10 +8835,10 @@
         <v>1321</v>
       </c>
       <c r="I155" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1919</v>
       </c>
@@ -8852,14 +8857,14 @@
       <c r="G156" t="s">
         <v>1073</v>
       </c>
-      <c r="H156" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H156" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1919</v>
       </c>
@@ -8878,14 +8883,14 @@
       <c r="G157" t="s">
         <v>1074</v>
       </c>
-      <c r="H157" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H157" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1919</v>
       </c>
@@ -8905,13 +8910,13 @@
         <v>1075</v>
       </c>
       <c r="H158" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I158" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1919</v>
       </c>
@@ -8931,13 +8936,13 @@
         <v>1076</v>
       </c>
       <c r="H159" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I159" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1919</v>
       </c>
@@ -8957,19 +8962,19 @@
         <v>1077</v>
       </c>
       <c r="H160" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I160" t="s">
         <v>1441</v>
       </c>
-      <c r="I160" t="s">
-        <v>1445</v>
-      </c>
       <c r="K160" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="L160" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1919</v>
       </c>
@@ -8989,13 +8994,13 @@
         <v>1078</v>
       </c>
       <c r="H161" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I161" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1919</v>
       </c>
@@ -9015,13 +9020,13 @@
         <v>1079</v>
       </c>
       <c r="H162" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I162" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1919</v>
       </c>
@@ -9041,13 +9046,13 @@
         <v>1080</v>
       </c>
       <c r="H163" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I163" t="s">
         <v>1441</v>
       </c>
-      <c r="I163" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1919</v>
       </c>
@@ -9067,13 +9072,13 @@
         <v>1081</v>
       </c>
       <c r="H164" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I164" t="s">
         <v>1441</v>
       </c>
-      <c r="I164" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1919</v>
       </c>
@@ -9096,13 +9101,13 @@
         <v>1322</v>
       </c>
       <c r="I165" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J165" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1919</v>
       </c>
@@ -9125,13 +9130,13 @@
         <v>1322</v>
       </c>
       <c r="I166" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J166" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1919</v>
       </c>
@@ -9154,13 +9159,13 @@
         <v>1322</v>
       </c>
       <c r="I167" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J167" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1919</v>
       </c>
@@ -9183,13 +9188,13 @@
         <v>1322</v>
       </c>
       <c r="I168" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J168" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1919</v>
       </c>
@@ -9212,13 +9217,13 @@
         <v>1322</v>
       </c>
       <c r="I169" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J169" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1919</v>
       </c>
@@ -9241,10 +9246,10 @@
         <v>1323</v>
       </c>
       <c r="I170" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1919</v>
       </c>
@@ -9264,13 +9269,13 @@
         <v>1085</v>
       </c>
       <c r="H171" t="s">
-        <v>1419</v>
+        <v>1456</v>
       </c>
       <c r="I171" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1919</v>
       </c>
@@ -9290,13 +9295,13 @@
         <v>1086</v>
       </c>
       <c r="H172" t="s">
-        <v>1419</v>
+        <v>1456</v>
       </c>
       <c r="I172" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1919</v>
       </c>
@@ -9316,13 +9321,13 @@
         <v>1087</v>
       </c>
       <c r="H173" t="s">
-        <v>1419</v>
+        <v>1456</v>
       </c>
       <c r="I173" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1919</v>
       </c>
@@ -9345,10 +9350,10 @@
         <v>1324</v>
       </c>
       <c r="I174" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1919</v>
       </c>
@@ -9371,10 +9376,10 @@
         <v>1325</v>
       </c>
       <c r="I175" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1919</v>
       </c>
@@ -9397,10 +9402,10 @@
         <v>1326</v>
       </c>
       <c r="I176" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1919</v>
       </c>
@@ -9423,10 +9428,10 @@
         <v>1326</v>
       </c>
       <c r="I177" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1919</v>
       </c>
@@ -9449,10 +9454,10 @@
         <v>1326</v>
       </c>
       <c r="I178" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1919</v>
       </c>
@@ -9471,14 +9476,14 @@
       <c r="G179" t="s">
         <v>1093</v>
       </c>
-      <c r="H179" s="2" t="s">
-        <v>1454</v>
+      <c r="H179" s="1" t="s">
+        <v>1450</v>
       </c>
       <c r="I179" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1919</v>
       </c>
@@ -9497,14 +9502,14 @@
       <c r="G180" t="s">
         <v>1094</v>
       </c>
-      <c r="H180" s="2" t="s">
-        <v>1454</v>
+      <c r="H180" s="1" t="s">
+        <v>1450</v>
       </c>
       <c r="I180" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1919</v>
       </c>
@@ -9523,14 +9528,14 @@
       <c r="G181" t="s">
         <v>1095</v>
       </c>
-      <c r="H181" s="2" t="s">
-        <v>1454</v>
+      <c r="H181" s="1" t="s">
+        <v>1450</v>
       </c>
       <c r="I181" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1919</v>
       </c>
@@ -9549,14 +9554,14 @@
       <c r="G182" t="s">
         <v>1096</v>
       </c>
-      <c r="H182" s="2" t="s">
-        <v>1454</v>
+      <c r="H182" s="1" t="s">
+        <v>1450</v>
       </c>
       <c r="I182" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1919</v>
       </c>
@@ -9575,14 +9580,14 @@
       <c r="G183" t="s">
         <v>1097</v>
       </c>
-      <c r="H183" s="2" t="s">
-        <v>1454</v>
+      <c r="H183" s="1" t="s">
+        <v>1450</v>
       </c>
       <c r="I183" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1919</v>
       </c>
@@ -9602,13 +9607,13 @@
         <v>1098</v>
       </c>
       <c r="H184" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="I184" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1919</v>
       </c>
@@ -9628,13 +9633,13 @@
         <v>1099</v>
       </c>
       <c r="H185" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="I185" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1919</v>
       </c>
@@ -9654,13 +9659,13 @@
         <v>993</v>
       </c>
       <c r="H186" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="I186" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1919</v>
       </c>
@@ -9680,13 +9685,13 @@
         <v>1100</v>
       </c>
       <c r="H187" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="I187" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1919</v>
       </c>
@@ -9709,10 +9714,10 @@
         <v>1327</v>
       </c>
       <c r="I188" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1919</v>
       </c>
@@ -9735,10 +9740,10 @@
         <v>1327</v>
       </c>
       <c r="I189" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1919</v>
       </c>
@@ -9761,10 +9766,10 @@
         <v>1327</v>
       </c>
       <c r="I190" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1919</v>
       </c>
@@ -9787,10 +9792,10 @@
         <v>1327</v>
       </c>
       <c r="I191" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1919</v>
       </c>
@@ -9813,10 +9818,10 @@
         <v>1327</v>
       </c>
       <c r="I192" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1919</v>
       </c>
@@ -9839,10 +9844,10 @@
         <v>1327</v>
       </c>
       <c r="I193" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1919</v>
       </c>
@@ -9865,10 +9870,10 @@
         <v>1328</v>
       </c>
       <c r="I194" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1919</v>
       </c>
@@ -9891,10 +9896,10 @@
         <v>1328</v>
       </c>
       <c r="I195" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1919</v>
       </c>
@@ -9917,10 +9922,10 @@
         <v>1328</v>
       </c>
       <c r="I196" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1919</v>
       </c>
@@ -9943,10 +9948,10 @@
         <v>1329</v>
       </c>
       <c r="I197" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1919</v>
       </c>
@@ -9969,10 +9974,10 @@
         <v>1329</v>
       </c>
       <c r="I198" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1919</v>
       </c>
@@ -9995,10 +10000,10 @@
         <v>1329</v>
       </c>
       <c r="I199" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1919</v>
       </c>
@@ -10021,10 +10026,10 @@
         <v>1329</v>
       </c>
       <c r="I200" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1919</v>
       </c>
@@ -10047,10 +10052,10 @@
         <v>1329</v>
       </c>
       <c r="I201" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1919</v>
       </c>
@@ -10073,10 +10078,10 @@
         <v>1329</v>
       </c>
       <c r="I202" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1919</v>
       </c>
@@ -10099,10 +10104,10 @@
         <v>1329</v>
       </c>
       <c r="I203" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1919</v>
       </c>
@@ -10125,10 +10130,10 @@
         <v>1330</v>
       </c>
       <c r="I204" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1919</v>
       </c>
@@ -10151,10 +10156,10 @@
         <v>1330</v>
       </c>
       <c r="I205" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1919</v>
       </c>
@@ -10177,10 +10182,10 @@
         <v>1330</v>
       </c>
       <c r="I206" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1919</v>
       </c>
@@ -10203,10 +10208,10 @@
         <v>1331</v>
       </c>
       <c r="I207" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1919</v>
       </c>
@@ -10229,10 +10234,10 @@
         <v>1331</v>
       </c>
       <c r="I208" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1919</v>
       </c>
@@ -10255,10 +10260,10 @@
         <v>1331</v>
       </c>
       <c r="I209" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1919</v>
       </c>
@@ -10281,10 +10286,10 @@
         <v>1331</v>
       </c>
       <c r="I210" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1919</v>
       </c>
@@ -10307,10 +10312,10 @@
         <v>1331</v>
       </c>
       <c r="I211" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1919</v>
       </c>
@@ -10330,13 +10335,13 @@
         <v>1001</v>
       </c>
       <c r="H212" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I212" t="s">
         <v>1443</v>
       </c>
-      <c r="I212" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1919</v>
       </c>
@@ -10356,13 +10361,13 @@
         <v>1122</v>
       </c>
       <c r="H213" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I213" t="s">
         <v>1443</v>
       </c>
-      <c r="I213" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1919</v>
       </c>
@@ -10385,10 +10390,10 @@
         <v>1332</v>
       </c>
       <c r="I214" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1919</v>
       </c>
@@ -10411,10 +10416,10 @@
         <v>1332</v>
       </c>
       <c r="I215" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1919</v>
       </c>
@@ -10437,10 +10442,10 @@
         <v>1332</v>
       </c>
       <c r="I216" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1919</v>
       </c>
@@ -10463,10 +10468,10 @@
         <v>1332</v>
       </c>
       <c r="I217" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1919</v>
       </c>
@@ -10489,10 +10494,10 @@
         <v>1332</v>
       </c>
       <c r="I218" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1919</v>
       </c>
@@ -10515,10 +10520,10 @@
         <v>1333</v>
       </c>
       <c r="I219" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1919</v>
       </c>
@@ -10541,13 +10546,13 @@
         <v>1334</v>
       </c>
       <c r="I220" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="J220" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1919</v>
       </c>
@@ -10570,13 +10575,13 @@
         <v>1334</v>
       </c>
       <c r="I221" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="J221" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1919</v>
       </c>
@@ -10599,13 +10604,13 @@
         <v>1334</v>
       </c>
       <c r="I222" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="J222" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1919</v>
       </c>
@@ -10628,13 +10633,13 @@
         <v>1335</v>
       </c>
       <c r="I223" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J223" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1919</v>
       </c>
@@ -10657,10 +10662,10 @@
         <v>1336</v>
       </c>
       <c r="I224" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1919</v>
       </c>
@@ -10683,10 +10688,10 @@
         <v>1337</v>
       </c>
       <c r="I225" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1919</v>
       </c>
@@ -10706,13 +10711,13 @@
         <v>1113</v>
       </c>
       <c r="H226" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="I226" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1919</v>
       </c>
@@ -10732,13 +10737,13 @@
         <v>1132</v>
       </c>
       <c r="H227" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="I227" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1919</v>
       </c>
@@ -10758,13 +10763,13 @@
         <v>943</v>
       </c>
       <c r="H228" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="I228" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1919</v>
       </c>
@@ -10787,10 +10792,10 @@
         <v>1338</v>
       </c>
       <c r="I229" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1919</v>
       </c>
@@ -10813,10 +10818,10 @@
         <v>1338</v>
       </c>
       <c r="I230" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1919</v>
       </c>
@@ -10839,13 +10844,13 @@
         <v>1335</v>
       </c>
       <c r="I231" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J231" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1919</v>
       </c>
@@ -10865,13 +10870,13 @@
         <v>1135</v>
       </c>
       <c r="H232" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="I232" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1919</v>
       </c>
@@ -10894,10 +10899,10 @@
         <v>1339</v>
       </c>
       <c r="I233" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1919</v>
       </c>
@@ -10920,10 +10925,10 @@
         <v>1338</v>
       </c>
       <c r="I234" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1919</v>
       </c>
@@ -10946,10 +10951,10 @@
         <v>1340</v>
       </c>
       <c r="I235" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1919</v>
       </c>
@@ -10972,10 +10977,10 @@
         <v>1340</v>
       </c>
       <c r="I236" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1919</v>
       </c>
@@ -10998,10 +11003,10 @@
         <v>1336</v>
       </c>
       <c r="I237" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1919</v>
       </c>
@@ -11024,13 +11029,13 @@
         <v>1335</v>
       </c>
       <c r="I238" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J238" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1919</v>
       </c>
@@ -11050,13 +11055,13 @@
         <v>1140</v>
       </c>
       <c r="H239" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="I239" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1919</v>
       </c>
@@ -11076,13 +11081,13 @@
         <v>1141</v>
       </c>
       <c r="H240" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="I240" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1919</v>
       </c>
@@ -11105,10 +11110,10 @@
         <v>1337</v>
       </c>
       <c r="I241" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1919</v>
       </c>
@@ -11131,13 +11136,13 @@
         <v>1335</v>
       </c>
       <c r="I242" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J242" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1919</v>
       </c>
@@ -11160,13 +11165,13 @@
         <v>1335</v>
       </c>
       <c r="I243" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J243" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1919</v>
       </c>
@@ -11186,13 +11191,13 @@
         <v>1144</v>
       </c>
       <c r="H244" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="I244" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1919</v>
       </c>
@@ -11215,10 +11220,10 @@
         <v>1336</v>
       </c>
       <c r="I245" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1919</v>
       </c>
@@ -11241,10 +11246,10 @@
         <v>1341</v>
       </c>
       <c r="I246" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1919</v>
       </c>
@@ -11267,10 +11272,10 @@
         <v>1342</v>
       </c>
       <c r="I247" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1919</v>
       </c>
@@ -11293,10 +11298,10 @@
         <v>1342</v>
       </c>
       <c r="I248" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1919</v>
       </c>
@@ -11319,10 +11324,10 @@
         <v>1342</v>
       </c>
       <c r="I249" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1919</v>
       </c>
@@ -11345,10 +11350,10 @@
         <v>1342</v>
       </c>
       <c r="I250" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1919</v>
       </c>
@@ -11371,10 +11376,10 @@
         <v>1342</v>
       </c>
       <c r="I251" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1919</v>
       </c>
@@ -11397,10 +11402,10 @@
         <v>1342</v>
       </c>
       <c r="I252" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1919</v>
       </c>
@@ -11423,10 +11428,10 @@
         <v>1277</v>
       </c>
       <c r="I253" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1919</v>
       </c>
@@ -11449,10 +11454,10 @@
         <v>1277</v>
       </c>
       <c r="I254" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1919</v>
       </c>
@@ -11475,10 +11480,10 @@
         <v>1303</v>
       </c>
       <c r="I255" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1919</v>
       </c>
@@ -11501,10 +11506,10 @@
         <v>1303</v>
       </c>
       <c r="I256" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1919</v>
       </c>
@@ -11527,10 +11532,10 @@
         <v>1303</v>
       </c>
       <c r="I257" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1919</v>
       </c>
@@ -11553,10 +11558,10 @@
         <v>1343</v>
       </c>
       <c r="I258" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1919</v>
       </c>
@@ -11579,10 +11584,10 @@
         <v>1343</v>
       </c>
       <c r="I259" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1919</v>
       </c>
@@ -11602,13 +11607,13 @@
         <v>1153</v>
       </c>
       <c r="H260" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="I260" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1919</v>
       </c>
@@ -11631,10 +11636,10 @@
         <v>1344</v>
       </c>
       <c r="I261" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1919</v>
       </c>
@@ -11657,10 +11662,10 @@
         <v>1344</v>
       </c>
       <c r="I262" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1919</v>
       </c>
@@ -11683,10 +11688,10 @@
         <v>1344</v>
       </c>
       <c r="I263" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1919</v>
       </c>
@@ -11706,13 +11711,13 @@
         <v>1155</v>
       </c>
       <c r="H264" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I264" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1919</v>
       </c>
@@ -11735,10 +11740,10 @@
         <v>1343</v>
       </c>
       <c r="I265" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1919</v>
       </c>
@@ -11758,13 +11763,13 @@
         <v>1096</v>
       </c>
       <c r="H266" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I266" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1919</v>
       </c>
@@ -11787,10 +11792,10 @@
         <v>1343</v>
       </c>
       <c r="I267" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1919</v>
       </c>
@@ -11810,13 +11815,13 @@
         <v>994</v>
       </c>
       <c r="H268" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I268" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1919</v>
       </c>
@@ -11839,10 +11844,10 @@
         <v>1344</v>
       </c>
       <c r="I269" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1919</v>
       </c>
@@ -11865,10 +11870,10 @@
         <v>1344</v>
       </c>
       <c r="I270" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1919</v>
       </c>
@@ -11891,10 +11896,10 @@
         <v>1343</v>
       </c>
       <c r="I271" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1919</v>
       </c>
@@ -11914,10 +11919,10 @@
         <v>1046</v>
       </c>
       <c r="H272" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1919</v>
       </c>
@@ -11940,10 +11945,10 @@
         <v>1344</v>
       </c>
       <c r="I273" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1919</v>
       </c>
@@ -11963,10 +11968,10 @@
         <v>1158</v>
       </c>
       <c r="H274" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1919</v>
       </c>
@@ -11989,10 +11994,10 @@
         <v>1345</v>
       </c>
       <c r="I275" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1919</v>
       </c>
@@ -12015,10 +12020,10 @@
         <v>1345</v>
       </c>
       <c r="I276" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1919</v>
       </c>
@@ -12038,13 +12043,13 @@
         <v>1161</v>
       </c>
       <c r="H277" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="I277" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1919</v>
       </c>
@@ -12067,10 +12072,10 @@
         <v>1345</v>
       </c>
       <c r="I278" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1919</v>
       </c>
@@ -12090,13 +12095,13 @@
         <v>1163</v>
       </c>
       <c r="H279" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="I279" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1919</v>
       </c>
@@ -12116,13 +12121,13 @@
         <v>1164</v>
       </c>
       <c r="H280" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="I280" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1919</v>
       </c>
@@ -12145,10 +12150,10 @@
         <v>1346</v>
       </c>
       <c r="I281" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1919</v>
       </c>
@@ -12171,10 +12176,10 @@
         <v>1346</v>
       </c>
       <c r="I282" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1919</v>
       </c>
@@ -12194,13 +12199,13 @@
         <v>981</v>
       </c>
       <c r="H283" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="I283" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1919</v>
       </c>
@@ -12223,10 +12228,10 @@
         <v>1347</v>
       </c>
       <c r="I284" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1919</v>
       </c>
@@ -12246,13 +12251,13 @@
         <v>1167</v>
       </c>
       <c r="H285" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="I285" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1919</v>
       </c>
@@ -12272,13 +12277,13 @@
         <v>1168</v>
       </c>
       <c r="H286" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="I286" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1919</v>
       </c>
@@ -12298,13 +12303,13 @@
         <v>1169</v>
       </c>
       <c r="H287" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="I287" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1919</v>
       </c>
@@ -12327,10 +12332,10 @@
         <v>1348</v>
       </c>
       <c r="I288" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1919</v>
       </c>
@@ -12353,10 +12358,10 @@
         <v>1348</v>
       </c>
       <c r="I289" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1919</v>
       </c>
@@ -12379,10 +12384,10 @@
         <v>1349</v>
       </c>
       <c r="I290" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1919</v>
       </c>
@@ -12405,10 +12410,10 @@
         <v>1346</v>
       </c>
       <c r="I291" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1919</v>
       </c>
@@ -12431,10 +12436,10 @@
         <v>1346</v>
       </c>
       <c r="I292" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1919</v>
       </c>
@@ -12457,10 +12462,10 @@
         <v>1345</v>
       </c>
       <c r="I293" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1919</v>
       </c>
@@ -12483,10 +12488,10 @@
         <v>1345</v>
       </c>
       <c r="I294" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1919</v>
       </c>
@@ -12509,10 +12514,10 @@
         <v>1345</v>
       </c>
       <c r="I295" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1919</v>
       </c>
@@ -12532,13 +12537,13 @@
         <v>1176</v>
       </c>
       <c r="H296" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="I296" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1919</v>
       </c>
@@ -12561,10 +12566,10 @@
         <v>1346</v>
       </c>
       <c r="I297" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1919</v>
       </c>
@@ -12583,17 +12588,17 @@
       <c r="G298" t="s">
         <v>1177</v>
       </c>
-      <c r="H298" s="1" t="s">
+      <c r="H298" t="s">
         <v>1350</v>
       </c>
       <c r="I298" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J298" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1919</v>
       </c>
@@ -12615,17 +12620,17 @@
       <c r="G299" t="s">
         <v>1178</v>
       </c>
-      <c r="H299" s="1" t="s">
+      <c r="H299" t="s">
         <v>1350</v>
       </c>
       <c r="I299" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J299" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1919</v>
       </c>
@@ -12647,17 +12652,17 @@
       <c r="G300" t="s">
         <v>1169</v>
       </c>
-      <c r="H300" s="1" t="s">
+      <c r="H300" t="s">
         <v>1350</v>
       </c>
       <c r="I300" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J300" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1919</v>
       </c>
@@ -12676,17 +12681,17 @@
       <c r="G301" t="s">
         <v>1113</v>
       </c>
-      <c r="H301" s="1" t="s">
+      <c r="H301" t="s">
         <v>1350</v>
       </c>
       <c r="I301" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J301" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1919</v>
       </c>
@@ -12705,17 +12710,17 @@
       <c r="G302" t="s">
         <v>1179</v>
       </c>
-      <c r="H302" s="1" t="s">
+      <c r="H302" t="s">
         <v>1350</v>
       </c>
       <c r="I302" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J302" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1919</v>
       </c>
@@ -12734,17 +12739,17 @@
       <c r="G303" t="s">
         <v>1180</v>
       </c>
-      <c r="H303" s="1" t="s">
+      <c r="H303" t="s">
         <v>1350</v>
       </c>
       <c r="I303" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J303" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1919</v>
       </c>
@@ -12767,10 +12772,10 @@
         <v>1351</v>
       </c>
       <c r="I304" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1919</v>
       </c>
@@ -12793,10 +12798,10 @@
         <v>1351</v>
       </c>
       <c r="I305" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1919</v>
       </c>
@@ -12819,10 +12824,10 @@
         <v>1351</v>
       </c>
       <c r="I306" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1919</v>
       </c>
@@ -12845,10 +12850,10 @@
         <v>1352</v>
       </c>
       <c r="I307" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1919</v>
       </c>
@@ -12871,10 +12876,10 @@
         <v>1353</v>
       </c>
       <c r="I308" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1919</v>
       </c>
@@ -12897,10 +12902,10 @@
         <v>1353</v>
       </c>
       <c r="I309" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1919</v>
       </c>
@@ -12923,10 +12928,10 @@
         <v>1353</v>
       </c>
       <c r="I310" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1919</v>
       </c>
@@ -12949,10 +12954,10 @@
         <v>1354</v>
       </c>
       <c r="I311" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1919</v>
       </c>
@@ -12975,10 +12980,10 @@
         <v>1352</v>
       </c>
       <c r="I312" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1919</v>
       </c>
@@ -13001,10 +13006,10 @@
         <v>1351</v>
       </c>
       <c r="I313" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1919</v>
       </c>
@@ -13027,10 +13032,10 @@
         <v>1353</v>
       </c>
       <c r="I314" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1919</v>
       </c>
@@ -13053,10 +13058,10 @@
         <v>1355</v>
       </c>
       <c r="I315" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1919</v>
       </c>
@@ -13079,10 +13084,10 @@
         <v>1355</v>
       </c>
       <c r="I316" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1919</v>
       </c>
@@ -13105,10 +13110,10 @@
         <v>1355</v>
       </c>
       <c r="I317" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1919</v>
       </c>
@@ -13128,13 +13133,13 @@
         <v>1191</v>
       </c>
       <c r="H318" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I318" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1919</v>
       </c>
@@ -13154,13 +13159,13 @@
         <v>1192</v>
       </c>
       <c r="H319" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I319" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1919</v>
       </c>
@@ -13183,10 +13188,10 @@
         <v>1356</v>
       </c>
       <c r="I320" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1919</v>
       </c>
@@ -13209,10 +13214,10 @@
         <v>1356</v>
       </c>
       <c r="I321" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1919</v>
       </c>
@@ -13232,13 +13237,13 @@
         <v>1194</v>
       </c>
       <c r="H322" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="I322" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1919</v>
       </c>
@@ -13258,13 +13263,13 @@
         <v>1147</v>
       </c>
       <c r="H323" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="I323" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1919</v>
       </c>
@@ -13284,13 +13289,13 @@
         <v>981</v>
       </c>
       <c r="H324" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="I324" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1919</v>
       </c>
@@ -13313,10 +13318,10 @@
         <v>1357</v>
       </c>
       <c r="I325" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1919</v>
       </c>
@@ -13336,13 +13341,13 @@
         <v>1195</v>
       </c>
       <c r="H326" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="I326" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1919</v>
       </c>
@@ -13362,13 +13367,13 @@
         <v>1196</v>
       </c>
       <c r="H327" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="I327" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1919</v>
       </c>
@@ -13391,13 +13396,13 @@
         <v>1197</v>
       </c>
       <c r="H328" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="I328" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1919</v>
       </c>
@@ -13420,10 +13425,10 @@
         <v>1358</v>
       </c>
       <c r="I329" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1919</v>
       </c>
@@ -13443,13 +13448,13 @@
         <v>1198</v>
       </c>
       <c r="H330" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I330" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1919</v>
       </c>
@@ -13469,13 +13474,13 @@
         <v>1199</v>
       </c>
       <c r="H331" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I331" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1919</v>
       </c>
@@ -13495,13 +13500,13 @@
         <v>1200</v>
       </c>
       <c r="H332" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="I332" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1919</v>
       </c>
@@ -13524,10 +13529,10 @@
         <v>1356</v>
       </c>
       <c r="I333" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1919</v>
       </c>
@@ -13550,10 +13555,10 @@
         <v>1359</v>
       </c>
       <c r="I334" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1919</v>
       </c>
@@ -13576,10 +13581,10 @@
         <v>1360</v>
       </c>
       <c r="I335" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1919</v>
       </c>
@@ -13602,10 +13607,10 @@
         <v>1313</v>
       </c>
       <c r="I336" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1919</v>
       </c>
@@ -13625,10 +13630,10 @@
         <v>1046</v>
       </c>
       <c r="H337" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1919</v>
       </c>
@@ -13648,13 +13653,13 @@
         <v>983</v>
       </c>
       <c r="H338" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I338" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1919</v>
       </c>
@@ -13674,10 +13679,10 @@
         <v>1046</v>
       </c>
       <c r="H339" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1919</v>
       </c>
@@ -13697,13 +13702,13 @@
         <v>1203</v>
       </c>
       <c r="H340" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I340" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1919</v>
       </c>
@@ -13726,10 +13731,10 @@
         <v>1360</v>
       </c>
       <c r="I341" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1919</v>
       </c>
@@ -13752,10 +13757,10 @@
         <v>1313</v>
       </c>
       <c r="I342" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1919</v>
       </c>
@@ -13778,10 +13783,10 @@
         <v>1361</v>
       </c>
       <c r="I343" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1919</v>
       </c>
@@ -13804,10 +13809,10 @@
         <v>1361</v>
       </c>
       <c r="I344" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1919</v>
       </c>
@@ -13830,10 +13835,10 @@
         <v>1361</v>
       </c>
       <c r="I345" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1919</v>
       </c>
@@ -13856,10 +13861,10 @@
         <v>1285</v>
       </c>
       <c r="I346" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1919</v>
       </c>
@@ -13882,10 +13887,10 @@
         <v>1285</v>
       </c>
       <c r="I347" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1919</v>
       </c>
@@ -13908,10 +13913,10 @@
         <v>1285</v>
       </c>
       <c r="I348" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1919</v>
       </c>
@@ -13934,10 +13939,10 @@
         <v>1362</v>
       </c>
       <c r="I349" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1919</v>
       </c>
@@ -13960,10 +13965,10 @@
         <v>1363</v>
       </c>
       <c r="I350" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1919</v>
       </c>
@@ -13986,10 +13991,10 @@
         <v>1363</v>
       </c>
       <c r="I351" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1919</v>
       </c>
@@ -14012,10 +14017,10 @@
         <v>1363</v>
       </c>
       <c r="I352" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1919</v>
       </c>
@@ -14038,10 +14043,10 @@
         <v>1364</v>
       </c>
       <c r="I353" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1919</v>
       </c>
@@ -14064,10 +14069,10 @@
         <v>1364</v>
       </c>
       <c r="I354" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1919</v>
       </c>
@@ -14090,10 +14095,10 @@
         <v>1365</v>
       </c>
       <c r="I355" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1919</v>
       </c>
@@ -14116,10 +14121,10 @@
         <v>1366</v>
       </c>
       <c r="I356" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1919</v>
       </c>
@@ -14142,10 +14147,10 @@
         <v>1348</v>
       </c>
       <c r="I357" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1919</v>
       </c>
@@ -14168,10 +14173,10 @@
         <v>1357</v>
       </c>
       <c r="I358" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1919</v>
       </c>
@@ -14191,13 +14196,13 @@
         <v>1210</v>
       </c>
       <c r="H359" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I359" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1919</v>
       </c>
@@ -14217,13 +14222,13 @@
         <v>1211</v>
       </c>
       <c r="H360" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I360" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1919</v>
       </c>
@@ -14243,13 +14248,13 @@
         <v>1212</v>
       </c>
       <c r="H361" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I361" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1919</v>
       </c>
@@ -14269,13 +14274,13 @@
         <v>1211</v>
       </c>
       <c r="H362" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I362" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1919</v>
       </c>
@@ -14295,13 +14300,13 @@
         <v>1212</v>
       </c>
       <c r="H363" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I363" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1919</v>
       </c>
@@ -14321,13 +14326,13 @@
         <v>1213</v>
       </c>
       <c r="H364" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="I364" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1919</v>
       </c>
@@ -14347,13 +14352,13 @@
         <v>1137</v>
       </c>
       <c r="H365" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="I365" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1919</v>
       </c>
@@ -14373,13 +14378,13 @@
         <v>1214</v>
       </c>
       <c r="H366" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="I366" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1919</v>
       </c>
@@ -14399,19 +14404,19 @@
         <v>1215</v>
       </c>
       <c r="H367" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="I367" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="K367" t="s">
         <v>1367</v>
       </c>
       <c r="L367" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1919</v>
       </c>
@@ -14434,10 +14439,10 @@
         <v>1367</v>
       </c>
       <c r="I368" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1919</v>
       </c>
@@ -14460,10 +14465,10 @@
         <v>1367</v>
       </c>
       <c r="I369" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1919</v>
       </c>
@@ -14486,10 +14491,10 @@
         <v>1367</v>
       </c>
       <c r="I370" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1919</v>
       </c>
@@ -14512,10 +14517,10 @@
         <v>1368</v>
       </c>
       <c r="I371" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1919</v>
       </c>
@@ -14538,10 +14543,10 @@
         <v>1369</v>
       </c>
       <c r="I372" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1919</v>
       </c>
@@ -14567,13 +14572,13 @@
         <v>1370</v>
       </c>
       <c r="I373" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="J373" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1919</v>
       </c>
@@ -14599,13 +14604,13 @@
         <v>1370</v>
       </c>
       <c r="I374" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="J374" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1919</v>
       </c>
@@ -14631,13 +14636,13 @@
         <v>1370</v>
       </c>
       <c r="I375" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="J375" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1919</v>
       </c>
@@ -14663,13 +14668,13 @@
         <v>1370</v>
       </c>
       <c r="I376" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="J376" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1919</v>
       </c>
@@ -14692,13 +14697,13 @@
         <v>972</v>
       </c>
       <c r="H377" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="I377" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1919</v>
       </c>
@@ -14718,13 +14723,13 @@
         <v>953</v>
       </c>
       <c r="H378" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="I378" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1919</v>
       </c>
@@ -14744,13 +14749,13 @@
         <v>1223</v>
       </c>
       <c r="H379" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="I379" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1919</v>
       </c>
@@ -14770,13 +14775,13 @@
         <v>1224</v>
       </c>
       <c r="H380" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="I380" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1919</v>
       </c>
@@ -14796,13 +14801,13 @@
         <v>1026</v>
       </c>
       <c r="H381" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="I381" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1919</v>
       </c>
@@ -14822,13 +14827,13 @@
         <v>1225</v>
       </c>
       <c r="H382" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="I382" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1919</v>
       </c>
@@ -14851,10 +14856,10 @@
         <v>1371</v>
       </c>
       <c r="I383" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1919</v>
       </c>
@@ -14877,10 +14882,10 @@
         <v>1371</v>
       </c>
       <c r="I384" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1919</v>
       </c>
@@ -14903,10 +14908,10 @@
         <v>1371</v>
       </c>
       <c r="I385" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1919</v>
       </c>
@@ -14929,10 +14934,10 @@
         <v>1372</v>
       </c>
       <c r="I386" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1919</v>
       </c>
@@ -14955,10 +14960,10 @@
         <v>1372</v>
       </c>
       <c r="I387" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1919</v>
       </c>
@@ -14981,10 +14986,10 @@
         <v>1373</v>
       </c>
       <c r="I388" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1919</v>
       </c>
@@ -15007,10 +15012,10 @@
         <v>1374</v>
       </c>
       <c r="I389" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1919</v>
       </c>
@@ -15033,10 +15038,10 @@
         <v>1375</v>
       </c>
       <c r="I390" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1919</v>
       </c>
@@ -15062,10 +15067,10 @@
         <v>1376</v>
       </c>
       <c r="I391" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1919</v>
       </c>
@@ -15088,10 +15093,10 @@
         <v>1376</v>
       </c>
       <c r="I392" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1919</v>
       </c>
@@ -15114,10 +15119,10 @@
         <v>1376</v>
       </c>
       <c r="I393" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1919</v>
       </c>
@@ -15140,10 +15145,10 @@
         <v>1376</v>
       </c>
       <c r="I394" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1919</v>
       </c>
@@ -15166,10 +15171,10 @@
         <v>1377</v>
       </c>
       <c r="I395" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1919</v>
       </c>
@@ -15192,10 +15197,10 @@
         <v>1377</v>
       </c>
       <c r="I396" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1919</v>
       </c>
@@ -15218,10 +15223,10 @@
         <v>1377</v>
       </c>
       <c r="I397" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1919</v>
       </c>
@@ -15244,10 +15249,10 @@
         <v>1377</v>
       </c>
       <c r="I398" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1919</v>
       </c>
@@ -15270,10 +15275,10 @@
         <v>1377</v>
       </c>
       <c r="I399" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1919</v>
       </c>
@@ -15296,10 +15301,10 @@
         <v>1377</v>
       </c>
       <c r="I400" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1919</v>
       </c>
@@ -15322,10 +15327,10 @@
         <v>1377</v>
       </c>
       <c r="I401" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1919</v>
       </c>
@@ -15348,10 +15353,10 @@
         <v>1377</v>
       </c>
       <c r="I402" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1919</v>
       </c>
@@ -15374,10 +15379,10 @@
         <v>1378</v>
       </c>
       <c r="I403" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1919</v>
       </c>
@@ -15400,10 +15405,10 @@
         <v>1378</v>
       </c>
       <c r="I404" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1919</v>
       </c>
@@ -15426,10 +15431,10 @@
         <v>1379</v>
       </c>
       <c r="I405" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1919</v>
       </c>
@@ -15452,10 +15457,10 @@
         <v>1380</v>
       </c>
       <c r="I406" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1919</v>
       </c>
@@ -15478,10 +15483,10 @@
         <v>1380</v>
       </c>
       <c r="I407" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1919</v>
       </c>
@@ -15504,10 +15509,10 @@
         <v>1381</v>
       </c>
       <c r="I408" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1919</v>
       </c>
@@ -15530,10 +15535,10 @@
         <v>1381</v>
       </c>
       <c r="I409" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1919</v>
       </c>
@@ -15556,10 +15561,10 @@
         <v>1382</v>
       </c>
       <c r="I410" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1919</v>
       </c>
@@ -15585,10 +15590,10 @@
         <v>1383</v>
       </c>
       <c r="I411" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1919</v>
       </c>
@@ -15614,10 +15619,10 @@
         <v>1383</v>
       </c>
       <c r="I412" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1919</v>
       </c>
@@ -15643,10 +15648,10 @@
         <v>1383</v>
       </c>
       <c r="I413" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1919</v>
       </c>
@@ -15672,10 +15677,10 @@
         <v>1383</v>
       </c>
       <c r="I414" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1919</v>
       </c>
@@ -15701,10 +15706,10 @@
         <v>1384</v>
       </c>
       <c r="I415" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1919</v>
       </c>
@@ -15730,10 +15735,10 @@
         <v>1384</v>
       </c>
       <c r="I416" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1919</v>
       </c>
@@ -15759,10 +15764,10 @@
         <v>1384</v>
       </c>
       <c r="I417" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1919</v>
       </c>
@@ -15788,10 +15793,10 @@
         <v>1384</v>
       </c>
       <c r="I418" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1919</v>
       </c>
@@ -15817,10 +15822,10 @@
         <v>1384</v>
       </c>
       <c r="I419" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1919</v>
       </c>
@@ -15846,10 +15851,10 @@
         <v>1384</v>
       </c>
       <c r="I420" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1919</v>
       </c>
@@ -15875,10 +15880,10 @@
         <v>1384</v>
       </c>
       <c r="I421" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1919</v>
       </c>
@@ -15904,10 +15909,10 @@
         <v>1385</v>
       </c>
       <c r="I422" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1919</v>
       </c>
@@ -15933,10 +15938,10 @@
         <v>1385</v>
       </c>
       <c r="I423" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1919</v>
       </c>
@@ -15959,10 +15964,10 @@
         <v>1297</v>
       </c>
       <c r="I424" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1919</v>
       </c>
@@ -15985,10 +15990,10 @@
         <v>1297</v>
       </c>
       <c r="I425" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1919</v>
       </c>
@@ -16011,10 +16016,10 @@
         <v>1297</v>
       </c>
       <c r="I426" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1919</v>
       </c>
@@ -16037,16 +16042,16 @@
         <v>1297</v>
       </c>
       <c r="I427" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="K427" t="s">
         <v>1386</v>
       </c>
       <c r="L427" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1919</v>
       </c>
@@ -16069,10 +16074,10 @@
         <v>1297</v>
       </c>
       <c r="I428" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1919</v>
       </c>
@@ -16092,13 +16097,13 @@
         <v>1069</v>
       </c>
       <c r="H429" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="I429" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1919</v>
       </c>
@@ -16121,10 +16126,10 @@
         <v>1386</v>
       </c>
       <c r="I430" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1919</v>
       </c>
@@ -16144,19 +16149,19 @@
         <v>1252</v>
       </c>
       <c r="H431" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="I431" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="K431" t="s">
         <v>1297</v>
       </c>
       <c r="L431" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1919</v>
       </c>
@@ -16179,10 +16184,10 @@
         <v>1387</v>
       </c>
       <c r="I432" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1919</v>
       </c>
@@ -16202,13 +16207,13 @@
         <v>1253</v>
       </c>
       <c r="H433" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="I433" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1919</v>
       </c>
@@ -16228,13 +16233,13 @@
         <v>1254</v>
       </c>
       <c r="H434" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="I434" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1919</v>
       </c>
@@ -16254,13 +16259,13 @@
         <v>1255</v>
       </c>
       <c r="H435" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="I435" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1919</v>
       </c>
@@ -16280,13 +16285,13 @@
         <v>1256</v>
       </c>
       <c r="H436" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="I436" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1919</v>
       </c>
@@ -16306,13 +16311,13 @@
         <v>1257</v>
       </c>
       <c r="H437" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="I437" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1919</v>
       </c>
@@ -16332,13 +16337,13 @@
         <v>1258</v>
       </c>
       <c r="H438" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="I438" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1919</v>
       </c>
@@ -16358,13 +16363,13 @@
         <v>1259</v>
       </c>
       <c r="H439" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="I439" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1919</v>
       </c>
@@ -16387,10 +16392,10 @@
         <v>1388</v>
       </c>
       <c r="I440" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1919</v>
       </c>
@@ -16413,10 +16418,10 @@
         <v>1388</v>
       </c>
       <c r="I441" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1919</v>
       </c>
@@ -16439,10 +16444,10 @@
         <v>1388</v>
       </c>
       <c r="I442" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1919</v>
       </c>
@@ -16465,16 +16470,16 @@
         <v>1388</v>
       </c>
       <c r="I443" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="K443" t="s">
         <v>1391</v>
       </c>
       <c r="L443" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1919</v>
       </c>
@@ -16497,10 +16502,10 @@
         <v>1388</v>
       </c>
       <c r="I444" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1919</v>
       </c>
@@ -16523,16 +16528,16 @@
         <v>1388</v>
       </c>
       <c r="I445" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="K445" t="s">
         <v>1391</v>
       </c>
       <c r="L445" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1919</v>
       </c>
@@ -16555,10 +16560,10 @@
         <v>1389</v>
       </c>
       <c r="I446" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1919</v>
       </c>
@@ -16581,10 +16586,10 @@
         <v>1389</v>
       </c>
       <c r="I447" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1919</v>
       </c>
@@ -16607,10 +16612,10 @@
         <v>1389</v>
       </c>
       <c r="I448" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1919</v>
       </c>
@@ -16633,10 +16638,10 @@
         <v>1390</v>
       </c>
       <c r="I449" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1919</v>
       </c>
@@ -16659,10 +16664,10 @@
         <v>1391</v>
       </c>
       <c r="I450" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1919</v>
       </c>
@@ -16685,10 +16690,10 @@
         <v>1391</v>
       </c>
       <c r="I451" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1919</v>
       </c>
@@ -16711,10 +16716,10 @@
         <v>1392</v>
       </c>
       <c r="I452" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1919</v>
       </c>
@@ -16737,16 +16742,16 @@
         <v>1392</v>
       </c>
       <c r="I453" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="K453" t="s">
         <v>1395</v>
       </c>
       <c r="L453" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1919</v>
       </c>
@@ -16769,22 +16774,22 @@
         <v>1392</v>
       </c>
       <c r="I454" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="K454" t="s">
         <v>1393</v>
       </c>
       <c r="L454" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="M454" t="s">
         <v>1395</v>
       </c>
       <c r="N454" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1919</v>
       </c>
@@ -16807,10 +16812,10 @@
         <v>1393</v>
       </c>
       <c r="I455" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1919</v>
       </c>
@@ -16833,10 +16838,10 @@
         <v>1393</v>
       </c>
       <c r="I456" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1919</v>
       </c>
@@ -16859,10 +16864,10 @@
         <v>1394</v>
       </c>
       <c r="I457" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1919</v>
       </c>
@@ -16885,10 +16890,10 @@
         <v>1395</v>
       </c>
       <c r="I458" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1919</v>
       </c>
@@ -16908,13 +16913,13 @@
         <v>1046</v>
       </c>
       <c r="H459" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="I459" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1919</v>
       </c>
@@ -16937,10 +16942,10 @@
         <v>1396</v>
       </c>
       <c r="I460" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1919</v>
       </c>
@@ -16963,10 +16968,10 @@
         <v>1397</v>
       </c>
       <c r="I461" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1919</v>
       </c>
@@ -16989,10 +16994,10 @@
         <v>1397</v>
       </c>
       <c r="I462" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1919</v>
       </c>
@@ -17015,10 +17020,10 @@
         <v>1397</v>
       </c>
       <c r="I463" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1919</v>
       </c>
@@ -17041,10 +17046,10 @@
         <v>1397</v>
       </c>
       <c r="I464" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1919</v>
       </c>
@@ -17067,10 +17072,10 @@
         <v>1397</v>
       </c>
       <c r="I465" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>1919</v>
       </c>
@@ -17093,10 +17098,10 @@
         <v>1397</v>
       </c>
       <c r="I466" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>1919</v>
       </c>
@@ -17119,10 +17124,10 @@
         <v>1398</v>
       </c>
       <c r="I467" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>1919</v>
       </c>
@@ -17145,7 +17150,7 @@
         <v>1399</v>
       </c>
       <c r="I468" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1919_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1919_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F403FE18-D8B8-4570-AC3E-E3F0F3AF469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B66A2-1E32-4917-9DBA-C3B621DA0BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="1458">
   <si>
     <t>Sommer</t>
   </si>
@@ -3208,12 +3208,6 @@
     <t>Di. u. Do. vorm. 6-8, in 2 Abteilgn. Mo. 5-6. Theoretische Stde. für beide Abteilgn. gemeinsam m. P.-D. Anderes.</t>
   </si>
   <si>
-    <t>Di. 7-9. P.-D.</t>
-  </si>
-  <si>
-    <t>Mo. 4-5. P.-D.</t>
-  </si>
-  <si>
     <t>Mo. bis Fr. von 3 1/4 an.</t>
   </si>
   <si>
@@ -3883,9 +3877,6 @@
     <t>giesker_h</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>zuercher_e</t>
   </si>
   <si>
@@ -4216,9 +4207,6 @@
     <t>schlaginhaufen_o</t>
   </si>
   <si>
-    <t>egli_k</t>
-  </si>
-  <si>
     <t>bosshard_h</t>
   </si>
   <si>
@@ -4240,9 +4228,6 @@
     <t>pfaendler_w</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
     <t>hess_wr</t>
   </si>
   <si>
@@ -4258,9 +4243,6 @@
     <t>bloch_b</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -4324,9 +4306,6 @@
     <t>voncleric_gf</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>vonmeyenburg_h</t>
   </si>
   <si>
@@ -4394,6 +4373,27 @@
   </si>
   <si>
     <t>anderes_e</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>Di. 7-9.</t>
+  </si>
+  <si>
+    <t>hubacher_k</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>egli_k2</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
   </si>
 </sst>
 </file>
@@ -4435,12 +4435,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4744,11 +4747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="32.21875" customWidth="1"/>
@@ -4777,10 +4780,10 @@
         <v>939</v>
       </c>
       <c r="H1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I1" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4803,10 +4806,10 @@
         <v>940</v>
       </c>
       <c r="H2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I2" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4829,10 +4832,10 @@
         <v>941</v>
       </c>
       <c r="H3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="I3" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4855,10 +4858,10 @@
         <v>942</v>
       </c>
       <c r="H4" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I4" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4881,10 +4884,10 @@
         <v>943</v>
       </c>
       <c r="H5" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="I5" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4907,10 +4910,10 @@
         <v>944</v>
       </c>
       <c r="H6" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="I6" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4933,13 +4936,13 @@
         <v>945</v>
       </c>
       <c r="H7" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I7" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J7" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4962,10 +4965,10 @@
         <v>946</v>
       </c>
       <c r="H8" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I8" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4988,13 +4991,13 @@
         <v>947</v>
       </c>
       <c r="H9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I9" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J9" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5017,10 +5020,10 @@
         <v>948</v>
       </c>
       <c r="H10" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="I10" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5043,10 +5046,10 @@
         <v>949</v>
       </c>
       <c r="H11" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="I11" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5069,10 +5072,10 @@
         <v>950</v>
       </c>
       <c r="H12" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I12" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5095,10 +5098,10 @@
         <v>951</v>
       </c>
       <c r="H13" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I13" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5121,10 +5124,10 @@
         <v>952</v>
       </c>
       <c r="H14" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="I14" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5147,10 +5150,10 @@
         <v>953</v>
       </c>
       <c r="H15" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I15" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5173,10 +5176,10 @@
         <v>954</v>
       </c>
       <c r="H16" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="I16" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5199,10 +5202,10 @@
         <v>955</v>
       </c>
       <c r="H17" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I17" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5225,10 +5228,10 @@
         <v>956</v>
       </c>
       <c r="H18" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="I18" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5251,10 +5254,10 @@
         <v>957</v>
       </c>
       <c r="H19" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I19" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5277,10 +5280,10 @@
         <v>958</v>
       </c>
       <c r="H20" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I20" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5303,13 +5306,13 @@
         <v>955</v>
       </c>
       <c r="H21" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I21" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J21" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5332,10 +5335,10 @@
         <v>959</v>
       </c>
       <c r="H22" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="I22" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5358,10 +5361,10 @@
         <v>960</v>
       </c>
       <c r="H23" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I23" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5384,10 +5387,10 @@
         <v>961</v>
       </c>
       <c r="H24" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="I24" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5410,10 +5413,10 @@
         <v>962</v>
       </c>
       <c r="H25" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="I25" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5436,10 +5439,10 @@
         <v>963</v>
       </c>
       <c r="H26" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I26" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5462,13 +5465,13 @@
         <v>964</v>
       </c>
       <c r="H27" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I27" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J27" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5491,13 +5494,13 @@
         <v>965</v>
       </c>
       <c r="H28" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I28" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J28" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5520,10 +5523,10 @@
         <v>966</v>
       </c>
       <c r="H29" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I29" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5546,10 +5549,10 @@
         <v>967</v>
       </c>
       <c r="H30" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I30" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5572,10 +5575,10 @@
         <v>968</v>
       </c>
       <c r="H31" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="I31" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5598,10 +5601,10 @@
         <v>969</v>
       </c>
       <c r="H32" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I32" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5624,10 +5627,10 @@
         <v>970</v>
       </c>
       <c r="H33" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I33" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5650,10 +5653,10 @@
         <v>971</v>
       </c>
       <c r="H34" t="s">
-        <v>1287</v>
+        <v>1457</v>
       </c>
       <c r="I34" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5676,10 +5679,10 @@
         <v>972</v>
       </c>
       <c r="H35" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I35" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5702,10 +5705,10 @@
         <v>973</v>
       </c>
       <c r="H36" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I36" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5728,10 +5731,10 @@
         <v>974</v>
       </c>
       <c r="H37" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I37" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5754,10 +5757,10 @@
         <v>975</v>
       </c>
       <c r="H38" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I38" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5780,10 +5783,10 @@
         <v>976</v>
       </c>
       <c r="H39" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I39" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5806,10 +5809,10 @@
         <v>977</v>
       </c>
       <c r="H40" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="I40" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5832,10 +5835,10 @@
         <v>978</v>
       </c>
       <c r="H41" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I41" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5858,10 +5861,10 @@
         <v>979</v>
       </c>
       <c r="H42" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I42" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5884,10 +5887,10 @@
         <v>980</v>
       </c>
       <c r="H43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="I43" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5910,10 +5913,10 @@
         <v>981</v>
       </c>
       <c r="H44" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="I44" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5936,10 +5939,10 @@
         <v>982</v>
       </c>
       <c r="H45" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I45" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5962,10 +5965,10 @@
         <v>951</v>
       </c>
       <c r="H46" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I46" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5988,10 +5991,10 @@
         <v>983</v>
       </c>
       <c r="H47" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I47" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -6014,10 +6017,10 @@
         <v>984</v>
       </c>
       <c r="H48" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I48" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -6040,10 +6043,10 @@
         <v>985</v>
       </c>
       <c r="H49" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I49" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -6066,10 +6069,10 @@
         <v>951</v>
       </c>
       <c r="H50" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I50" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -6092,10 +6095,10 @@
         <v>986</v>
       </c>
       <c r="H51" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="I51" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -6118,10 +6121,10 @@
         <v>987</v>
       </c>
       <c r="H52" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="I52" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -6144,10 +6147,10 @@
         <v>988</v>
       </c>
       <c r="H53" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="I53" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6170,10 +6173,10 @@
         <v>981</v>
       </c>
       <c r="H54" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I54" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -6196,10 +6199,10 @@
         <v>989</v>
       </c>
       <c r="H55" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="I55" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -6222,10 +6225,10 @@
         <v>990</v>
       </c>
       <c r="H56" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I56" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -6248,10 +6251,10 @@
         <v>991</v>
       </c>
       <c r="H57" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I57" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -6274,10 +6277,10 @@
         <v>992</v>
       </c>
       <c r="H58" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I58" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -6300,10 +6303,10 @@
         <v>993</v>
       </c>
       <c r="H59" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="I59" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -6326,10 +6329,10 @@
         <v>994</v>
       </c>
       <c r="H60" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I60" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -6352,10 +6355,10 @@
         <v>995</v>
       </c>
       <c r="H61" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="I61" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6378,10 +6381,10 @@
         <v>958</v>
       </c>
       <c r="H62" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I62" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -6404,10 +6407,10 @@
         <v>996</v>
       </c>
       <c r="H63" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="I63" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -6430,10 +6433,10 @@
         <v>997</v>
       </c>
       <c r="H64" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I64" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -6456,10 +6459,10 @@
         <v>998</v>
       </c>
       <c r="H65" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I65" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -6482,10 +6485,10 @@
         <v>999</v>
       </c>
       <c r="H66" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="I66" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -6508,10 +6511,10 @@
         <v>948</v>
       </c>
       <c r="H67" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I67" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -6534,10 +6537,10 @@
         <v>958</v>
       </c>
       <c r="H68" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I68" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -6560,10 +6563,10 @@
         <v>1000</v>
       </c>
       <c r="H69" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I69" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -6586,10 +6589,10 @@
         <v>1001</v>
       </c>
       <c r="H70" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="I70" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -6612,10 +6615,10 @@
         <v>1002</v>
       </c>
       <c r="H71" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I71" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -6638,16 +6641,16 @@
         <v>1003</v>
       </c>
       <c r="H72" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I72" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="K72" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="L72" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -6667,10 +6670,10 @@
         <v>548</v>
       </c>
       <c r="G73" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="H73" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -6693,10 +6696,10 @@
         <v>956</v>
       </c>
       <c r="H74" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I74" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -6719,10 +6722,10 @@
         <v>1004</v>
       </c>
       <c r="H75" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I75" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -6745,10 +6748,10 @@
         <v>1005</v>
       </c>
       <c r="H76" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I76" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -6774,7 +6777,7 @@
         <v>1006</v>
       </c>
       <c r="H77" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -6797,19 +6800,19 @@
         <v>1007</v>
       </c>
       <c r="H78" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I78" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="K78" t="s">
-        <v>1406</v>
+        <v>1451</v>
       </c>
       <c r="L78" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="M78" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -6835,10 +6838,10 @@
         <v>1008</v>
       </c>
       <c r="H79" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I79" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -6861,10 +6864,10 @@
         <v>1009</v>
       </c>
       <c r="H80" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I80" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6890,10 +6893,10 @@
         <v>1010</v>
       </c>
       <c r="H81" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I81" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -6916,16 +6919,16 @@
         <v>1011</v>
       </c>
       <c r="H82" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I82" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="K82" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="L82" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -6948,10 +6951,10 @@
         <v>1012</v>
       </c>
       <c r="H83" t="s">
-        <v>1406</v>
+        <v>1451</v>
       </c>
       <c r="I83" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -6974,10 +6977,10 @@
         <v>1013</v>
       </c>
       <c r="H84" t="s">
-        <v>1434</v>
+        <v>1455</v>
       </c>
       <c r="I84" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -7000,10 +7003,10 @@
         <v>1014</v>
       </c>
       <c r="H85" t="s">
-        <v>1434</v>
+        <v>1455</v>
       </c>
       <c r="I85" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -7026,10 +7029,10 @@
         <v>1015</v>
       </c>
       <c r="H86" t="s">
-        <v>1434</v>
+        <v>1455</v>
       </c>
       <c r="I86" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -7052,10 +7055,10 @@
         <v>1016</v>
       </c>
       <c r="H87" t="s">
-        <v>1434</v>
+        <v>1455</v>
       </c>
       <c r="I87" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -7078,10 +7081,10 @@
         <v>1017</v>
       </c>
       <c r="H88" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="I88" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -7104,10 +7107,10 @@
         <v>1018</v>
       </c>
       <c r="H89" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="I89" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -7130,10 +7133,10 @@
         <v>1019</v>
       </c>
       <c r="H90" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="I90" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -7156,10 +7159,10 @@
         <v>1020</v>
       </c>
       <c r="H91" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="I91" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -7182,10 +7185,10 @@
         <v>1021</v>
       </c>
       <c r="H92" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I92" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -7208,10 +7211,10 @@
         <v>1022</v>
       </c>
       <c r="H93" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I93" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -7234,10 +7237,10 @@
         <v>1023</v>
       </c>
       <c r="H94" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I94" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -7260,10 +7263,10 @@
         <v>1024</v>
       </c>
       <c r="H95" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I95" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -7286,13 +7289,13 @@
         <v>1025</v>
       </c>
       <c r="H96" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I96" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1919</v>
       </c>
@@ -7312,13 +7315,13 @@
         <v>1026</v>
       </c>
       <c r="H97" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I97" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1919</v>
       </c>
@@ -7338,13 +7341,13 @@
         <v>1027</v>
       </c>
       <c r="H98" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I98" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1919</v>
       </c>
@@ -7364,13 +7367,13 @@
         <v>1028</v>
       </c>
       <c r="H99" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="I99" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1919</v>
       </c>
@@ -7390,13 +7393,13 @@
         <v>1029</v>
       </c>
       <c r="H100" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="I100" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1919</v>
       </c>
@@ -7416,13 +7419,19 @@
         <v>1030</v>
       </c>
       <c r="H101" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="I101" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1454</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1919</v>
       </c>
@@ -7442,13 +7451,13 @@
         <v>1031</v>
       </c>
       <c r="H102" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="I102" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1919</v>
       </c>
@@ -7468,13 +7477,13 @@
         <v>1032</v>
       </c>
       <c r="H103" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="I103" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1919</v>
       </c>
@@ -7494,13 +7503,13 @@
         <v>1033</v>
       </c>
       <c r="H104" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="I104" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1919</v>
       </c>
@@ -7520,13 +7529,13 @@
         <v>1034</v>
       </c>
       <c r="H105" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="I105" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1919</v>
       </c>
@@ -7546,13 +7555,13 @@
         <v>1035</v>
       </c>
       <c r="H106" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I106" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1919</v>
       </c>
@@ -7572,13 +7581,13 @@
         <v>1027</v>
       </c>
       <c r="H107" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I107" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1919</v>
       </c>
@@ -7598,13 +7607,13 @@
         <v>1036</v>
       </c>
       <c r="H108" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="I108" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1919</v>
       </c>
@@ -7624,13 +7633,13 @@
         <v>1037</v>
       </c>
       <c r="H109" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="I109" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1919</v>
       </c>
@@ -7650,13 +7659,13 @@
         <v>1038</v>
       </c>
       <c r="H110" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="I110" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1919</v>
       </c>
@@ -7676,13 +7685,13 @@
         <v>1021</v>
       </c>
       <c r="H111" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="I111" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1919</v>
       </c>
@@ -7702,10 +7711,10 @@
         <v>1039</v>
       </c>
       <c r="H112" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="I112" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7728,10 +7737,10 @@
         <v>1040</v>
       </c>
       <c r="H113" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="I113" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7754,10 +7763,10 @@
         <v>1041</v>
       </c>
       <c r="H114" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="I114" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7780,10 +7789,10 @@
         <v>1027</v>
       </c>
       <c r="H115" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="I115" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7806,10 +7815,10 @@
         <v>1027</v>
       </c>
       <c r="H116" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="I116" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7832,10 +7841,10 @@
         <v>1042</v>
       </c>
       <c r="H117" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I117" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7858,10 +7867,10 @@
         <v>1043</v>
       </c>
       <c r="H118" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I118" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7884,10 +7893,10 @@
         <v>1044</v>
       </c>
       <c r="H119" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I119" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7910,10 +7919,10 @@
         <v>1045</v>
       </c>
       <c r="H120" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I120" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7936,10 +7945,10 @@
         <v>1046</v>
       </c>
       <c r="H121" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I121" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7962,10 +7971,10 @@
         <v>1027</v>
       </c>
       <c r="H122" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I122" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7988,10 +7997,10 @@
         <v>1046</v>
       </c>
       <c r="H123" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I123" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -8014,10 +8023,10 @@
         <v>1027</v>
       </c>
       <c r="H124" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I124" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -8040,10 +8049,10 @@
         <v>1047</v>
       </c>
       <c r="H125" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I125" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8066,16 +8075,16 @@
         <v>1048</v>
       </c>
       <c r="H126" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I126" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="K126" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="L126" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8098,16 +8107,16 @@
         <v>1049</v>
       </c>
       <c r="H127" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I127" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="K127" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="L127" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8130,10 +8139,10 @@
         <v>1050</v>
       </c>
       <c r="H128" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I128" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8156,10 +8165,10 @@
         <v>1051</v>
       </c>
       <c r="H129" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I129" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8182,10 +8191,10 @@
         <v>1052</v>
       </c>
       <c r="H130" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I130" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8208,10 +8217,10 @@
         <v>1053</v>
       </c>
       <c r="H131" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I131" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8234,10 +8243,10 @@
         <v>1054</v>
       </c>
       <c r="H132" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I132" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8260,10 +8269,10 @@
         <v>1055</v>
       </c>
       <c r="H133" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="I133" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8286,10 +8295,10 @@
         <v>1027</v>
       </c>
       <c r="H134" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I134" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8312,10 +8321,10 @@
         <v>998</v>
       </c>
       <c r="H135" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I135" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8338,10 +8347,10 @@
         <v>1056</v>
       </c>
       <c r="H136" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I136" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8364,10 +8373,10 @@
         <v>948</v>
       </c>
       <c r="H137" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I137" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8390,10 +8399,10 @@
         <v>1057</v>
       </c>
       <c r="H138" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I138" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8416,10 +8425,10 @@
         <v>1058</v>
       </c>
       <c r="H139" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I139" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8442,10 +8451,10 @@
         <v>1059</v>
       </c>
       <c r="H140" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I140" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8468,10 +8477,10 @@
         <v>1060</v>
       </c>
       <c r="H141" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I141" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8494,10 +8503,10 @@
         <v>1061</v>
       </c>
       <c r="H142" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I142" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8517,13 +8526,13 @@
         <v>618</v>
       </c>
       <c r="G143" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H143" t="s">
-        <v>1412</v>
+        <v>1453</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>1452</v>
       </c>
       <c r="I143" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8543,13 +8552,13 @@
         <v>619</v>
       </c>
       <c r="G144" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H144" t="s">
-        <v>1412</v>
+        <v>1136</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>1452</v>
       </c>
       <c r="I144" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8569,13 +8578,13 @@
         <v>620</v>
       </c>
       <c r="G145" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H145" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="I145" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8595,13 +8604,13 @@
         <v>621</v>
       </c>
       <c r="G146" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H146" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="I146" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8621,13 +8630,13 @@
         <v>622</v>
       </c>
       <c r="G147" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H147" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="I147" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8647,13 +8656,13 @@
         <v>623</v>
       </c>
       <c r="G148" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H148" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I148" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8673,13 +8682,13 @@
         <v>624</v>
       </c>
       <c r="G149" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H149" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I149" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8699,13 +8708,13 @@
         <v>625</v>
       </c>
       <c r="G150" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H150" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="I150" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8725,13 +8734,13 @@
         <v>626</v>
       </c>
       <c r="G151" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H151" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="I151" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8754,10 +8763,10 @@
         <v>1046</v>
       </c>
       <c r="H152" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I152" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8777,13 +8786,13 @@
         <v>628</v>
       </c>
       <c r="G153" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H153" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I153" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8803,13 +8812,13 @@
         <v>629</v>
       </c>
       <c r="G154" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H154" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="I154" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8829,13 +8838,13 @@
         <v>630</v>
       </c>
       <c r="G155" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H155" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="I155" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8855,13 +8864,13 @@
         <v>631</v>
       </c>
       <c r="G156" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H156" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="I156" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8881,13 +8890,13 @@
         <v>632</v>
       </c>
       <c r="G157" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H157" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="I157" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8907,13 +8916,13 @@
         <v>633</v>
       </c>
       <c r="G158" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H158" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="I158" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8933,13 +8942,13 @@
         <v>634</v>
       </c>
       <c r="G159" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H159" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="I159" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8959,19 +8968,19 @@
         <v>635</v>
       </c>
       <c r="G160" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H160" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="I160" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="K160" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="L160" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -8991,13 +9000,13 @@
         <v>636</v>
       </c>
       <c r="G161" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H161" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="I161" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -9017,13 +9026,13 @@
         <v>637</v>
       </c>
       <c r="G162" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H162" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="I162" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -9043,13 +9052,13 @@
         <v>638</v>
       </c>
       <c r="G163" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H163" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="I163" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -9069,13 +9078,13 @@
         <v>639</v>
       </c>
       <c r="G164" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H164" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="I164" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -9095,16 +9104,16 @@
         <v>640</v>
       </c>
       <c r="G165" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H165" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I165" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J165" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -9124,16 +9133,16 @@
         <v>641</v>
       </c>
       <c r="G166" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H166" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I166" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J166" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -9156,13 +9165,13 @@
         <v>1026</v>
       </c>
       <c r="H167" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I167" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J167" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -9185,13 +9194,13 @@
         <v>959</v>
       </c>
       <c r="H168" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I168" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J168" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -9211,16 +9220,16 @@
         <v>644</v>
       </c>
       <c r="G169" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H169" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I169" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J169" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -9240,13 +9249,13 @@
         <v>641</v>
       </c>
       <c r="G170" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H170" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="I170" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -9266,13 +9275,13 @@
         <v>645</v>
       </c>
       <c r="G171" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H171" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="I171" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -9292,13 +9301,13 @@
         <v>646</v>
       </c>
       <c r="G172" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H172" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="I172" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -9318,13 +9327,13 @@
         <v>647</v>
       </c>
       <c r="G173" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H173" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="I173" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -9344,13 +9353,13 @@
         <v>648</v>
       </c>
       <c r="G174" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H174" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I174" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -9370,13 +9379,13 @@
         <v>649</v>
       </c>
       <c r="G175" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H175" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I175" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -9396,13 +9405,13 @@
         <v>650</v>
       </c>
       <c r="G176" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H176" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I176" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9422,13 +9431,13 @@
         <v>651</v>
       </c>
       <c r="G177" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H177" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I177" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9448,13 +9457,13 @@
         <v>652</v>
       </c>
       <c r="G178" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H178" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I178" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9474,13 +9483,13 @@
         <v>653</v>
       </c>
       <c r="G179" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="I179" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9500,13 +9509,13 @@
         <v>654</v>
       </c>
       <c r="G180" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="I180" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9526,13 +9535,13 @@
         <v>655</v>
       </c>
       <c r="G181" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="I181" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9552,13 +9561,13 @@
         <v>656</v>
       </c>
       <c r="G182" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="I182" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9578,13 +9587,13 @@
         <v>657</v>
       </c>
       <c r="G183" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="I183" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9604,13 +9613,13 @@
         <v>658</v>
       </c>
       <c r="G184" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H184" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="I184" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9630,13 +9639,13 @@
         <v>659</v>
       </c>
       <c r="G185" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H185" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="I185" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9659,10 +9668,10 @@
         <v>993</v>
       </c>
       <c r="H186" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="I186" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9682,13 +9691,13 @@
         <v>661</v>
       </c>
       <c r="G187" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H187" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="I187" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9708,13 +9717,13 @@
         <v>662</v>
       </c>
       <c r="G188" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H188" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I188" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9734,13 +9743,13 @@
         <v>663</v>
       </c>
       <c r="G189" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H189" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I189" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9760,13 +9769,13 @@
         <v>664</v>
       </c>
       <c r="G190" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H190" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I190" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9786,13 +9795,13 @@
         <v>665</v>
       </c>
       <c r="G191" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H191" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I191" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9812,13 +9821,13 @@
         <v>666</v>
       </c>
       <c r="G192" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H192" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I192" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9838,13 +9847,13 @@
         <v>667</v>
       </c>
       <c r="G193" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H193" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I193" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9864,13 +9873,13 @@
         <v>668</v>
       </c>
       <c r="G194" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H194" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I194" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9890,13 +9899,13 @@
         <v>669</v>
       </c>
       <c r="G195" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H195" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I195" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9916,13 +9925,13 @@
         <v>670</v>
       </c>
       <c r="G196" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H196" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I196" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -9942,13 +9951,13 @@
         <v>671</v>
       </c>
       <c r="G197" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H197" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I197" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9968,13 +9977,13 @@
         <v>672</v>
       </c>
       <c r="G198" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H198" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I198" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9994,13 +10003,13 @@
         <v>635</v>
       </c>
       <c r="G199" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H199" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I199" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -10020,13 +10029,13 @@
         <v>673</v>
       </c>
       <c r="G200" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H200" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I200" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -10049,10 +10058,10 @@
         <v>1042</v>
       </c>
       <c r="H201" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I201" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -10072,13 +10081,13 @@
         <v>675</v>
       </c>
       <c r="G202" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H202" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I202" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -10101,10 +10110,10 @@
         <v>1026</v>
       </c>
       <c r="H203" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I203" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -10124,13 +10133,13 @@
         <v>677</v>
       </c>
       <c r="G204" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H204" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="I204" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -10150,13 +10159,13 @@
         <v>678</v>
       </c>
       <c r="G205" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H205" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="I205" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -10176,13 +10185,13 @@
         <v>679</v>
       </c>
       <c r="G206" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H206" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="I206" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10202,13 +10211,13 @@
         <v>680</v>
       </c>
       <c r="G207" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H207" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="I207" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10228,13 +10237,13 @@
         <v>681</v>
       </c>
       <c r="G208" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H208" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="I208" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10254,13 +10263,13 @@
         <v>682</v>
       </c>
       <c r="G209" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H209" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="I209" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10280,13 +10289,13 @@
         <v>683</v>
       </c>
       <c r="G210" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H210" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="I210" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10309,10 +10318,10 @@
         <v>1026</v>
       </c>
       <c r="H211" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="I211" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10335,10 +10344,10 @@
         <v>1001</v>
       </c>
       <c r="H212" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="I212" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10358,13 +10367,13 @@
         <v>686</v>
       </c>
       <c r="G213" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H213" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="I213" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10384,13 +10393,13 @@
         <v>687</v>
       </c>
       <c r="G214" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H214" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I214" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10410,13 +10419,13 @@
         <v>688</v>
       </c>
       <c r="G215" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H215" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I215" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10436,13 +10445,13 @@
         <v>689</v>
       </c>
       <c r="G216" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H216" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I216" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10465,10 +10474,10 @@
         <v>1026</v>
       </c>
       <c r="H217" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I217" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10488,13 +10497,13 @@
         <v>691</v>
       </c>
       <c r="G218" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H218" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I218" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10514,13 +10523,13 @@
         <v>692</v>
       </c>
       <c r="G219" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H219" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I219" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10540,16 +10549,16 @@
         <v>693</v>
       </c>
       <c r="G220" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H220" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="I220" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="J220" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10572,13 +10581,13 @@
         <v>1026</v>
       </c>
       <c r="H221" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="I221" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="J221" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10598,16 +10607,16 @@
         <v>695</v>
       </c>
       <c r="G222" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H222" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="I222" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="J222" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10627,16 +10636,16 @@
         <v>696</v>
       </c>
       <c r="G223" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H223" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="I223" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J223" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10656,13 +10665,13 @@
         <v>697</v>
       </c>
       <c r="G224" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H224" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="I224" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10682,13 +10691,13 @@
         <v>698</v>
       </c>
       <c r="G225" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H225" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="I225" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10708,13 +10717,13 @@
         <v>699</v>
       </c>
       <c r="G226" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H226" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="I226" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10734,13 +10743,13 @@
         <v>700</v>
       </c>
       <c r="G227" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H227" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="I227" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10763,10 +10772,10 @@
         <v>943</v>
       </c>
       <c r="H228" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="I228" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10786,13 +10795,13 @@
         <v>702</v>
       </c>
       <c r="G229" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H229" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="I229" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10812,13 +10821,13 @@
         <v>703</v>
       </c>
       <c r="G230" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H230" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="I230" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10838,16 +10847,16 @@
         <v>704</v>
       </c>
       <c r="G231" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H231" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="I231" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J231" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10867,13 +10876,13 @@
         <v>705</v>
       </c>
       <c r="G232" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H232" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="I232" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10896,10 +10905,10 @@
         <v>944</v>
       </c>
       <c r="H233" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="I233" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10919,13 +10928,13 @@
         <v>707</v>
       </c>
       <c r="G234" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H234" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="I234" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10945,13 +10954,13 @@
         <v>708</v>
       </c>
       <c r="G235" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H235" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="I235" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10971,13 +10980,13 @@
         <v>709</v>
       </c>
       <c r="G236" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H236" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="I236" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10997,13 +11006,13 @@
         <v>710</v>
       </c>
       <c r="G237" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H237" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="I237" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -11023,16 +11032,16 @@
         <v>711</v>
       </c>
       <c r="G238" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H238" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="I238" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J238" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -11052,13 +11061,13 @@
         <v>712</v>
       </c>
       <c r="G239" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H239" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="I239" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11078,13 +11087,13 @@
         <v>713</v>
       </c>
       <c r="G240" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H240" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="I240" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -11107,10 +11116,10 @@
         <v>960</v>
       </c>
       <c r="H241" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="I241" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -11130,16 +11139,16 @@
         <v>715</v>
       </c>
       <c r="G242" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H242" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="I242" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J242" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -11159,16 +11168,16 @@
         <v>716</v>
       </c>
       <c r="G243" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H243" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="I243" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J243" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -11188,13 +11197,13 @@
         <v>717</v>
       </c>
       <c r="G244" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H244" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="I244" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -11214,13 +11223,13 @@
         <v>718</v>
       </c>
       <c r="G245" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H245" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="I245" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -11243,10 +11252,10 @@
         <v>983</v>
       </c>
       <c r="H246" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="I246" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -11266,13 +11275,13 @@
         <v>720</v>
       </c>
       <c r="G247" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H247" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I247" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -11292,13 +11301,13 @@
         <v>721</v>
       </c>
       <c r="G248" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H248" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I248" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -11318,13 +11327,13 @@
         <v>722</v>
       </c>
       <c r="G249" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H249" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I249" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -11347,10 +11356,10 @@
         <v>1056</v>
       </c>
       <c r="H250" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I250" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -11370,13 +11379,13 @@
         <v>724</v>
       </c>
       <c r="G251" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H251" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I251" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -11396,13 +11405,13 @@
         <v>725</v>
       </c>
       <c r="G252" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H252" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I252" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11425,10 +11434,10 @@
         <v>1046</v>
       </c>
       <c r="H253" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I253" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11451,10 +11460,10 @@
         <v>1027</v>
       </c>
       <c r="H254" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I254" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11477,10 +11486,10 @@
         <v>1046</v>
       </c>
       <c r="H255" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I255" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11503,10 +11512,10 @@
         <v>1046</v>
       </c>
       <c r="H256" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I256" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11529,10 +11538,10 @@
         <v>1046</v>
       </c>
       <c r="H257" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I257" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11552,13 +11561,13 @@
         <v>731</v>
       </c>
       <c r="G258" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H258" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="I258" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11578,13 +11587,13 @@
         <v>732</v>
       </c>
       <c r="G259" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H259" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="I259" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11604,13 +11613,13 @@
         <v>733</v>
       </c>
       <c r="G260" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H260" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="I260" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11630,13 +11639,13 @@
         <v>734</v>
       </c>
       <c r="G261" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H261" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="I261" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11659,10 +11668,10 @@
         <v>1046</v>
       </c>
       <c r="H262" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="I262" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11685,10 +11694,10 @@
         <v>1027</v>
       </c>
       <c r="H263" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="I263" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11708,13 +11717,13 @@
         <v>737</v>
       </c>
       <c r="G264" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H264" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I264" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11737,10 +11746,10 @@
         <v>1034</v>
       </c>
       <c r="H265" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="I265" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11760,13 +11769,13 @@
         <v>739</v>
       </c>
       <c r="G266" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H266" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I266" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11786,13 +11795,13 @@
         <v>740</v>
       </c>
       <c r="G267" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="H267" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="I267" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11815,10 +11824,10 @@
         <v>994</v>
       </c>
       <c r="H268" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I268" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11841,10 +11850,10 @@
         <v>943</v>
       </c>
       <c r="H269" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="I269" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11864,13 +11873,13 @@
         <v>743</v>
       </c>
       <c r="G270" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H270" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="I270" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11890,13 +11899,13 @@
         <v>744</v>
       </c>
       <c r="G271" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H271" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="I271" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11919,7 +11928,7 @@
         <v>1046</v>
       </c>
       <c r="H272" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11942,10 +11951,10 @@
         <v>948</v>
       </c>
       <c r="H273" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="I273" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11965,10 +11974,10 @@
         <v>746</v>
       </c>
       <c r="G274" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H274" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11988,13 +11997,13 @@
         <v>747</v>
       </c>
       <c r="G275" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H275" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I275" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -12014,13 +12023,13 @@
         <v>748</v>
       </c>
       <c r="G276" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H276" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I276" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -12040,13 +12049,13 @@
         <v>749</v>
       </c>
       <c r="G277" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H277" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="I277" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -12066,13 +12075,13 @@
         <v>750</v>
       </c>
       <c r="G278" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H278" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I278" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12092,13 +12101,13 @@
         <v>751</v>
       </c>
       <c r="G279" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H279" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I279" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12118,13 +12127,13 @@
         <v>752</v>
       </c>
       <c r="G280" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H280" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I280" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12144,13 +12153,13 @@
         <v>753</v>
       </c>
       <c r="G281" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H281" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I281" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12170,13 +12179,13 @@
         <v>754</v>
       </c>
       <c r="G282" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H282" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I282" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12199,10 +12208,10 @@
         <v>981</v>
       </c>
       <c r="H283" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="I283" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12225,10 +12234,10 @@
         <v>1027</v>
       </c>
       <c r="H284" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="I284" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12248,13 +12257,13 @@
         <v>757</v>
       </c>
       <c r="G285" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H285" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="I285" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12274,13 +12283,13 @@
         <v>758</v>
       </c>
       <c r="G286" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H286" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="I286" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12300,13 +12309,13 @@
         <v>759</v>
       </c>
       <c r="G287" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H287" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="I287" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12326,13 +12335,13 @@
         <v>760</v>
       </c>
       <c r="G288" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H288" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I288" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12355,10 +12364,10 @@
         <v>978</v>
       </c>
       <c r="H289" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I289" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -12381,10 +12390,10 @@
         <v>948</v>
       </c>
       <c r="H290" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I290" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12404,13 +12413,13 @@
         <v>763</v>
       </c>
       <c r="G291" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H291" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I291" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -12430,13 +12439,13 @@
         <v>764</v>
       </c>
       <c r="G292" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H292" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I292" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -12456,13 +12465,13 @@
         <v>765</v>
       </c>
       <c r="G293" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H293" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I293" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12482,13 +12491,13 @@
         <v>766</v>
       </c>
       <c r="G294" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H294" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I294" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12508,13 +12517,13 @@
         <v>767</v>
       </c>
       <c r="G295" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H295" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I295" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12534,13 +12543,13 @@
         <v>768</v>
       </c>
       <c r="G296" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H296" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I296" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12563,10 +12572,10 @@
         <v>1055</v>
       </c>
       <c r="H297" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I297" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12586,16 +12595,16 @@
         <v>770</v>
       </c>
       <c r="G298" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H298" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I298" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J298" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12618,16 +12627,16 @@
         <v>771</v>
       </c>
       <c r="G299" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H299" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I299" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J299" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12650,16 +12659,16 @@
         <v>772</v>
       </c>
       <c r="G300" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H300" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I300" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J300" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12679,16 +12688,16 @@
         <v>773</v>
       </c>
       <c r="G301" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H301" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I301" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J301" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12708,16 +12717,16 @@
         <v>774</v>
       </c>
       <c r="G302" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H302" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I302" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J302" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12737,16 +12746,16 @@
         <v>775</v>
       </c>
       <c r="G303" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H303" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I303" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="J303" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12766,13 +12775,13 @@
         <v>776</v>
       </c>
       <c r="G304" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H304" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="I304" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12792,13 +12801,13 @@
         <v>777</v>
       </c>
       <c r="G305" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H305" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="I305" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12818,13 +12827,13 @@
         <v>778</v>
       </c>
       <c r="G306" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H306" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="I306" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12844,13 +12853,13 @@
         <v>779</v>
       </c>
       <c r="G307" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="H307" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="I307" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12870,13 +12879,13 @@
         <v>780</v>
       </c>
       <c r="G308" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H308" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="I308" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12896,13 +12905,13 @@
         <v>781</v>
       </c>
       <c r="G309" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H309" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="I309" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12922,13 +12931,13 @@
         <v>782</v>
       </c>
       <c r="G310" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H310" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="I310" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12948,13 +12957,13 @@
         <v>783</v>
       </c>
       <c r="G311" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H311" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="I311" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12974,13 +12983,13 @@
         <v>784</v>
       </c>
       <c r="G312" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H312" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="I312" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -13003,10 +13012,10 @@
         <v>958</v>
       </c>
       <c r="H313" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="I313" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -13026,13 +13035,13 @@
         <v>786</v>
       </c>
       <c r="G314" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H314" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="I314" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -13052,13 +13061,13 @@
         <v>787</v>
       </c>
       <c r="G315" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H315" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="I315" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13081,10 +13090,10 @@
         <v>1046</v>
       </c>
       <c r="H316" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="I316" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13107,10 +13116,10 @@
         <v>1046</v>
       </c>
       <c r="H317" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="I317" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13130,13 +13139,13 @@
         <v>790</v>
       </c>
       <c r="G318" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="H318" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I318" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13156,13 +13165,13 @@
         <v>791</v>
       </c>
       <c r="G319" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H319" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I319" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13185,10 +13194,10 @@
         <v>1004</v>
       </c>
       <c r="H320" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="I320" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13208,13 +13217,13 @@
         <v>793</v>
       </c>
       <c r="G321" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="H321" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="I321" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13234,13 +13243,13 @@
         <v>794</v>
       </c>
       <c r="G322" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H322" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="I322" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13260,13 +13269,13 @@
         <v>795</v>
       </c>
       <c r="G323" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H323" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="I323" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13289,10 +13298,10 @@
         <v>981</v>
       </c>
       <c r="H324" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="I324" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13315,10 +13324,10 @@
         <v>1046</v>
       </c>
       <c r="H325" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I325" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13338,13 +13347,13 @@
         <v>798</v>
       </c>
       <c r="G326" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="H326" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="I326" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13364,13 +13373,13 @@
         <v>799</v>
       </c>
       <c r="G327" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H327" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="I327" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13393,13 +13402,13 @@
         <v>800</v>
       </c>
       <c r="G328" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H328" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="I328" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13419,13 +13428,13 @@
         <v>801</v>
       </c>
       <c r="G329" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H329" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="I329" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13445,13 +13454,13 @@
         <v>802</v>
       </c>
       <c r="G330" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H330" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I330" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13471,13 +13480,13 @@
         <v>803</v>
       </c>
       <c r="G331" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="H331" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I331" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13497,13 +13506,13 @@
         <v>804</v>
       </c>
       <c r="G332" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H332" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="I332" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13523,13 +13532,13 @@
         <v>805</v>
       </c>
       <c r="G333" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H333" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="I333" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13549,13 +13558,13 @@
         <v>806</v>
       </c>
       <c r="G334" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H334" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="I334" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13578,10 +13587,10 @@
         <v>1046</v>
       </c>
       <c r="H335" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="I335" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13604,10 +13613,10 @@
         <v>1046</v>
       </c>
       <c r="H336" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="I336" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13630,7 +13639,7 @@
         <v>1046</v>
       </c>
       <c r="H337" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13653,10 +13662,10 @@
         <v>983</v>
       </c>
       <c r="H338" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I338" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13679,7 +13688,7 @@
         <v>1046</v>
       </c>
       <c r="H339" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13699,13 +13708,13 @@
         <v>811</v>
       </c>
       <c r="G340" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H340" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I340" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13725,13 +13734,13 @@
         <v>812</v>
       </c>
       <c r="G341" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H341" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="I341" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13754,10 +13763,10 @@
         <v>981</v>
       </c>
       <c r="H342" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="I342" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13777,13 +13786,13 @@
         <v>814</v>
       </c>
       <c r="G343" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H343" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="I343" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13803,13 +13812,13 @@
         <v>815</v>
       </c>
       <c r="G344" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H344" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="I344" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13832,10 +13841,10 @@
         <v>1027</v>
       </c>
       <c r="H345" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="I345" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13855,13 +13864,13 @@
         <v>817</v>
       </c>
       <c r="G346" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H346" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I346" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13884,10 +13893,10 @@
         <v>1046</v>
       </c>
       <c r="H347" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I347" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13907,13 +13916,13 @@
         <v>819</v>
       </c>
       <c r="G348" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="H348" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I348" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13936,10 +13945,10 @@
         <v>1046</v>
       </c>
       <c r="H349" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="I349" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13959,13 +13968,13 @@
         <v>821</v>
       </c>
       <c r="G350" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H350" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="I350" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13985,13 +13994,13 @@
         <v>822</v>
       </c>
       <c r="G351" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H351" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="I351" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -14011,13 +14020,13 @@
         <v>823</v>
       </c>
       <c r="G352" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H352" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="I352" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -14040,10 +14049,10 @@
         <v>1046</v>
       </c>
       <c r="H353" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="I353" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -14066,10 +14075,10 @@
         <v>1027</v>
       </c>
       <c r="H354" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="I354" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -14092,10 +14101,10 @@
         <v>1046</v>
       </c>
       <c r="H355" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="I355" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -14118,10 +14127,10 @@
         <v>1046</v>
       </c>
       <c r="H356" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="I356" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -14141,13 +14150,13 @@
         <v>828</v>
       </c>
       <c r="G357" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H357" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I357" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -14167,13 +14176,13 @@
         <v>829</v>
       </c>
       <c r="G358" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H358" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I358" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -14193,13 +14202,13 @@
         <v>830</v>
       </c>
       <c r="G359" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H359" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I359" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -14219,13 +14228,13 @@
         <v>831</v>
       </c>
       <c r="G360" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H360" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I360" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -14245,13 +14254,13 @@
         <v>832</v>
       </c>
       <c r="G361" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H361" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I361" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -14271,13 +14280,13 @@
         <v>833</v>
       </c>
       <c r="G362" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H362" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I362" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -14297,13 +14306,13 @@
         <v>834</v>
       </c>
       <c r="G363" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H363" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I363" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -14323,13 +14332,13 @@
         <v>835</v>
       </c>
       <c r="G364" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H364" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="I364" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -14349,13 +14358,13 @@
         <v>836</v>
       </c>
       <c r="G365" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H365" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="I365" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -14375,13 +14384,13 @@
         <v>837</v>
       </c>
       <c r="G366" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H366" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="I366" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14401,19 +14410,19 @@
         <v>838</v>
       </c>
       <c r="G367" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="H367" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="I367" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="K367" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="L367" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14433,13 +14442,13 @@
         <v>839</v>
       </c>
       <c r="G368" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H368" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I368" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14459,13 +14468,13 @@
         <v>840</v>
       </c>
       <c r="G369" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H369" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I369" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14485,13 +14494,13 @@
         <v>841</v>
       </c>
       <c r="G370" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H370" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I370" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14511,13 +14520,13 @@
         <v>842</v>
       </c>
       <c r="G371" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H371" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="I371" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14537,13 +14546,13 @@
         <v>843</v>
       </c>
       <c r="G372" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H372" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="I372" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14566,16 +14575,16 @@
         <v>844</v>
       </c>
       <c r="G373" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H373" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I373" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="J373" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14598,16 +14607,16 @@
         <v>845</v>
       </c>
       <c r="G374" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H374" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I374" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="J374" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14633,13 +14642,13 @@
         <v>1012</v>
       </c>
       <c r="H375" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I375" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="J375" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14662,16 +14671,16 @@
         <v>847</v>
       </c>
       <c r="G376" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="H376" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I376" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="J376" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14697,10 +14706,10 @@
         <v>972</v>
       </c>
       <c r="H377" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="I377" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14723,10 +14732,10 @@
         <v>953</v>
       </c>
       <c r="H378" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="I378" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14746,13 +14755,13 @@
         <v>850</v>
       </c>
       <c r="G379" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H379" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="I379" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14772,13 +14781,13 @@
         <v>851</v>
       </c>
       <c r="G380" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="H380" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="I380" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14801,10 +14810,10 @@
         <v>1026</v>
       </c>
       <c r="H381" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="I381" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14824,13 +14833,13 @@
         <v>853</v>
       </c>
       <c r="G382" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H382" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="I382" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14853,10 +14862,10 @@
         <v>1021</v>
       </c>
       <c r="H383" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="I383" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14876,13 +14885,13 @@
         <v>855</v>
       </c>
       <c r="G384" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H384" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="I384" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14905,10 +14914,10 @@
         <v>981</v>
       </c>
       <c r="H385" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="I385" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14928,13 +14937,13 @@
         <v>857</v>
       </c>
       <c r="G386" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H386" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I386" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14954,13 +14963,13 @@
         <v>858</v>
       </c>
       <c r="G387" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H387" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I387" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14980,13 +14989,13 @@
         <v>859</v>
       </c>
       <c r="G388" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H388" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I388" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -15009,10 +15018,10 @@
         <v>943</v>
       </c>
       <c r="H389" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I389" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -15035,10 +15044,10 @@
         <v>983</v>
       </c>
       <c r="H390" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I390" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -15064,10 +15073,10 @@
         <v>951</v>
       </c>
       <c r="H391" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I391" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15090,10 +15099,10 @@
         <v>1026</v>
       </c>
       <c r="H392" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I392" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15116,10 +15125,10 @@
         <v>1026</v>
       </c>
       <c r="H393" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I393" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15139,13 +15148,13 @@
         <v>865</v>
       </c>
       <c r="G394" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="H394" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I394" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15165,13 +15174,13 @@
         <v>866</v>
       </c>
       <c r="G395" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H395" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I395" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15191,13 +15200,13 @@
         <v>867</v>
       </c>
       <c r="G396" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="H396" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I396" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15220,10 +15229,10 @@
         <v>1003</v>
       </c>
       <c r="H397" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I397" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15243,13 +15252,13 @@
         <v>869</v>
       </c>
       <c r="G398" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="H398" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I398" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15269,13 +15278,13 @@
         <v>870</v>
       </c>
       <c r="G399" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H399" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I399" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15295,13 +15304,13 @@
         <v>871</v>
       </c>
       <c r="G400" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="H400" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I400" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15321,13 +15330,13 @@
         <v>872</v>
       </c>
       <c r="G401" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H401" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I401" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15347,13 +15356,13 @@
         <v>873</v>
       </c>
       <c r="G402" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H402" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I402" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15373,13 +15382,13 @@
         <v>874</v>
       </c>
       <c r="G403" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="H403" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I403" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15399,13 +15408,13 @@
         <v>875</v>
       </c>
       <c r="G404" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H404" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I404" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15428,10 +15437,10 @@
         <v>1046</v>
       </c>
       <c r="H405" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I405" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15454,10 +15463,10 @@
         <v>1027</v>
       </c>
       <c r="H406" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I406" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15480,10 +15489,10 @@
         <v>1027</v>
       </c>
       <c r="H407" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I407" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15506,10 +15515,10 @@
         <v>1046</v>
       </c>
       <c r="H408" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I408" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15532,10 +15541,10 @@
         <v>1046</v>
       </c>
       <c r="H409" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I409" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15558,10 +15567,10 @@
         <v>1027</v>
       </c>
       <c r="H410" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="I410" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15584,13 +15593,13 @@
         <v>882</v>
       </c>
       <c r="G411" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H411" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I411" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15613,13 +15622,13 @@
         <v>883</v>
       </c>
       <c r="G412" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H412" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I412" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15642,13 +15651,13 @@
         <v>884</v>
       </c>
       <c r="G413" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H413" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I413" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15671,13 +15680,13 @@
         <v>885</v>
       </c>
       <c r="G414" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H414" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I414" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15700,13 +15709,13 @@
         <v>886</v>
       </c>
       <c r="G415" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H415" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I415" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15729,13 +15738,13 @@
         <v>887</v>
       </c>
       <c r="G416" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H416" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I416" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15758,13 +15767,13 @@
         <v>888</v>
       </c>
       <c r="G417" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H417" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I417" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15787,13 +15796,13 @@
         <v>889</v>
       </c>
       <c r="G418" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H418" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I418" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15819,10 +15828,10 @@
         <v>1026</v>
       </c>
       <c r="H419" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I419" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15848,10 +15857,10 @@
         <v>983</v>
       </c>
       <c r="H420" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I420" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15874,13 +15883,13 @@
         <v>892</v>
       </c>
       <c r="G421" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="H421" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I421" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15906,10 +15915,10 @@
         <v>1046</v>
       </c>
       <c r="H422" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I422" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15935,10 +15944,10 @@
         <v>1046</v>
       </c>
       <c r="H423" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I423" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15958,13 +15967,13 @@
         <v>895</v>
       </c>
       <c r="G424" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H424" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I424" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15984,13 +15993,13 @@
         <v>896</v>
       </c>
       <c r="G425" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="H425" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I425" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -16010,13 +16019,13 @@
         <v>532</v>
       </c>
       <c r="G426" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="H426" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I426" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -16039,16 +16048,16 @@
         <v>1003</v>
       </c>
       <c r="H427" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I427" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="K427" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="L427" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -16068,13 +16077,13 @@
         <v>898</v>
       </c>
       <c r="G428" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H428" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I428" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -16094,13 +16103,13 @@
         <v>899</v>
       </c>
       <c r="G429" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H429" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="I429" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16123,10 +16132,10 @@
         <v>1027</v>
       </c>
       <c r="H430" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I430" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16146,19 +16155,19 @@
         <v>901</v>
       </c>
       <c r="G431" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="H431" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="I431" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="K431" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="L431" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16181,10 +16190,10 @@
         <v>1027</v>
       </c>
       <c r="H432" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I432" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
@@ -16204,13 +16213,13 @@
         <v>903</v>
       </c>
       <c r="G433" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="H433" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="I433" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
@@ -16230,13 +16239,13 @@
         <v>904</v>
       </c>
       <c r="G434" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="H434" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="I434" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
@@ -16256,13 +16265,13 @@
         <v>905</v>
       </c>
       <c r="G435" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H435" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="I435" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
@@ -16282,13 +16291,13 @@
         <v>906</v>
       </c>
       <c r="G436" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H436" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="I436" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
@@ -16308,13 +16317,13 @@
         <v>907</v>
       </c>
       <c r="G437" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H437" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="I437" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
@@ -16334,13 +16343,13 @@
         <v>908</v>
       </c>
       <c r="G438" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H438" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="I438" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
@@ -16360,13 +16369,13 @@
         <v>909</v>
       </c>
       <c r="G439" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H439" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="I439" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
@@ -16386,13 +16395,13 @@
         <v>910</v>
       </c>
       <c r="G440" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="H440" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I440" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
@@ -16415,10 +16424,10 @@
         <v>998</v>
       </c>
       <c r="H441" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I441" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
@@ -16438,13 +16447,13 @@
         <v>912</v>
       </c>
       <c r="G442" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H442" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I442" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
@@ -16464,19 +16473,19 @@
         <v>913</v>
       </c>
       <c r="G443" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H443" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I443" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K443" t="s">
         <v>1388</v>
       </c>
-      <c r="I443" t="s">
-        <v>1447</v>
-      </c>
-      <c r="K443" t="s">
-        <v>1391</v>
-      </c>
       <c r="L443" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
@@ -16496,13 +16505,13 @@
         <v>914</v>
       </c>
       <c r="G444" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H444" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I444" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
@@ -16522,19 +16531,19 @@
         <v>915</v>
       </c>
       <c r="G445" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H445" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I445" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K445" t="s">
         <v>1388</v>
       </c>
-      <c r="I445" t="s">
-        <v>1447</v>
-      </c>
-      <c r="K445" t="s">
-        <v>1391</v>
-      </c>
       <c r="L445" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
@@ -16554,13 +16563,13 @@
         <v>916</v>
       </c>
       <c r="G446" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H446" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I446" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
@@ -16580,13 +16589,13 @@
         <v>917</v>
       </c>
       <c r="G447" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H447" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I447" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
@@ -16606,13 +16615,13 @@
         <v>918</v>
       </c>
       <c r="G448" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="H448" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I448" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -16632,13 +16641,13 @@
         <v>919</v>
       </c>
       <c r="G449" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H449" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I449" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -16658,13 +16667,13 @@
         <v>920</v>
       </c>
       <c r="G450" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H450" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I450" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -16684,13 +16693,13 @@
         <v>921</v>
       </c>
       <c r="G451" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="H451" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I451" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -16710,13 +16719,13 @@
         <v>922</v>
       </c>
       <c r="G452" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="H452" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I452" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -16736,19 +16745,19 @@
         <v>923</v>
       </c>
       <c r="G453" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="H453" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I453" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K453" t="s">
         <v>1392</v>
       </c>
-      <c r="I453" t="s">
-        <v>1447</v>
-      </c>
-      <c r="K453" t="s">
-        <v>1395</v>
-      </c>
       <c r="L453" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -16768,25 +16777,25 @@
         <v>924</v>
       </c>
       <c r="G454" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H454" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I454" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K454" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L454" t="s">
+        <v>1441</v>
+      </c>
+      <c r="M454" t="s">
         <v>1392</v>
       </c>
-      <c r="I454" t="s">
-        <v>1447</v>
-      </c>
-      <c r="K454" t="s">
-        <v>1393</v>
-      </c>
-      <c r="L454" t="s">
-        <v>1448</v>
-      </c>
-      <c r="M454" t="s">
-        <v>1395</v>
-      </c>
       <c r="N454" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -16806,13 +16815,13 @@
         <v>925</v>
       </c>
       <c r="G455" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H455" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I455" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -16832,13 +16841,13 @@
         <v>926</v>
       </c>
       <c r="G456" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H456" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I456" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -16861,10 +16870,10 @@
         <v>1027</v>
       </c>
       <c r="H457" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I457" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -16884,13 +16893,13 @@
         <v>928</v>
       </c>
       <c r="G458" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="H458" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I458" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -16913,10 +16922,10 @@
         <v>1046</v>
       </c>
       <c r="H459" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="I459" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -16939,10 +16948,10 @@
         <v>1046</v>
       </c>
       <c r="H460" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I460" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -16965,10 +16974,10 @@
         <v>993</v>
       </c>
       <c r="H461" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I461" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -16991,10 +17000,10 @@
         <v>1046</v>
       </c>
       <c r="H462" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I462" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -17014,13 +17023,13 @@
         <v>933</v>
       </c>
       <c r="G463" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="H463" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I463" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -17040,13 +17049,13 @@
         <v>934</v>
       </c>
       <c r="G464" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="H464" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I464" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -17066,13 +17075,13 @@
         <v>935</v>
       </c>
       <c r="G465" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H465" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I465" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -17092,13 +17101,13 @@
         <v>936</v>
       </c>
       <c r="G466" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="H466" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I466" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -17121,10 +17130,10 @@
         <v>1046</v>
       </c>
       <c r="H467" t="s">
-        <v>1398</v>
+        <v>1456</v>
       </c>
       <c r="I467" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -17147,10 +17156,10 @@
         <v>1046</v>
       </c>
       <c r="H468" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="I468" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
   </sheetData>
